--- a/timelines/ShopOnline-Timelines.xlsx
+++ b/timelines/ShopOnline-Timelines.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CNTT-UTC\Ki_6\TTCM\Project-Shop-Online\timelines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTC\Ki_6\TTCM\Projects\Project-Shop-Online\timelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE105A8-E1BC-4A4F-9FAD-A9514F9ACC00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu thập yêu cầu" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Database" sheetId="4" r:id="rId3"/>
     <sheet name="Plan" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="269">
   <si>
     <t>Shop quần áo</t>
   </si>
@@ -741,9 +742,6 @@
     <t>CategoryID</t>
   </si>
   <si>
-    <t>Andress</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -862,7 +860,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="ddd\,\ d/m/yyyy"/>
@@ -2130,41 +2128,92 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2175,6 +2224,24 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2182,75 +2249,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2478,13 +2476,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>29</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2494,7 +2492,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0B7846-9DA0-4B08-B00F-7AAE4B9FA077}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2539,7 +2537,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026E2F0E-43DD-4FF2-A0FA-0CD2405BE6F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,50 +2868,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="76.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="76.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="185"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="196"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="196"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="157" t="s">
         <v>16</v>
       </c>
@@ -2927,7 +2925,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="158">
         <v>1</v>
       </c>
@@ -2937,7 +2935,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="166"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="158">
         <v>2</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="158">
         <v>3</v>
       </c>
@@ -2959,7 +2957,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="156"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="158">
         <v>4</v>
       </c>
@@ -2971,7 +2969,7 @@
       </c>
       <c r="D8" s="156"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="158">
         <v>5</v>
       </c>
@@ -2983,7 +2981,7 @@
       </c>
       <c r="D9" s="156"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="158">
         <v>6</v>
       </c>
@@ -2993,7 +2991,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="156"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
         <v>7</v>
       </c>
@@ -3003,7 +3001,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="156"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="158">
         <v>8</v>
       </c>
@@ -3013,7 +3011,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="156"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="158">
         <v>9</v>
       </c>
@@ -3023,7 +3021,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="156"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="158">
         <v>10</v>
       </c>
@@ -3033,7 +3031,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="156"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="158">
         <v>11</v>
       </c>
@@ -3043,7 +3041,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="156"/>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="158">
         <v>12</v>
       </c>
@@ -3053,7 +3051,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="156"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="158">
         <v>13</v>
       </c>
@@ -3065,7 +3063,7 @@
       </c>
       <c r="D17" s="156"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="158">
         <v>14</v>
       </c>
@@ -3075,51 +3073,51 @@
       <c r="C18" s="156"/>
       <c r="D18" s="156"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="157">
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="156"/>
       <c r="D19" s="156"/>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="167"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="167"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="167"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="167"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="167"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="167"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="167"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="167"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="167"/>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="168"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="167"/>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="167"/>
     </row>
   </sheetData>
@@ -3132,23 +3130,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B47" sqref="B47:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="170" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="23" customWidth="1"/>
-    <col min="4" max="6" width="30.7109375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="8.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="170" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="23" customWidth="1"/>
+    <col min="4" max="6" width="30.6640625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -3168,11 +3166,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="191">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="197">
         <v>1</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="197" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3182,9 +3180,9 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="192"/>
-      <c r="B3" s="192"/>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
       <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
@@ -3192,9 +3190,9 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="192"/>
-      <c r="B4" s="192"/>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="198"/>
+      <c r="B4" s="198"/>
       <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
@@ -3202,9 +3200,9 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
-      <c r="B5" s="192"/>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="198"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
@@ -3212,9 +3210,9 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
-      <c r="B6" s="192"/>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="198"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
@@ -3222,9 +3220,9 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="193"/>
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="199"/>
+      <c r="B7" s="199"/>
       <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
@@ -3236,11 +3234,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="191">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="197">
         <v>2</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="197" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3250,9 +3248,9 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="192"/>
-      <c r="B9" s="192"/>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
@@ -3260,9 +3258,9 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="192"/>
-      <c r="B10" s="192"/>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="198"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
@@ -3270,9 +3268,9 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="192"/>
-      <c r="B11" s="192"/>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="198"/>
+      <c r="B11" s="198"/>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
@@ -3280,9 +3278,9 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="192"/>
-      <c r="B12" s="192"/>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="198"/>
+      <c r="B12" s="198"/>
       <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
@@ -3290,9 +3288,9 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="193"/>
-      <c r="B13" s="193"/>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
@@ -3304,11 +3302,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="191">
+    <row r="14" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="197">
         <v>3</v>
       </c>
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="197" t="s">
         <v>137</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -3322,9 +3320,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="192"/>
-      <c r="B15" s="192"/>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="198"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
@@ -3332,9 +3330,9 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="192"/>
-      <c r="B16" s="192"/>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="198"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="5" t="s">
         <v>133</v>
       </c>
@@ -3342,9 +3340,9 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="192"/>
-      <c r="B17" s="192"/>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="198"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="5" t="s">
         <v>134</v>
       </c>
@@ -3352,9 +3350,9 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="193"/>
-      <c r="B18" s="193"/>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="199"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="5" t="s">
         <v>135</v>
       </c>
@@ -3362,11 +3360,11 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="191">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="197">
         <v>4</v>
       </c>
-      <c r="B19" s="191" t="s">
+      <c r="B19" s="197" t="s">
         <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -3376,9 +3374,9 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="192"/>
-      <c r="B20" s="192"/>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="198"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
@@ -3386,9 +3384,9 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="192"/>
-      <c r="B21" s="192"/>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="198"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
@@ -3396,9 +3394,9 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="192"/>
-      <c r="B22" s="192"/>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="198"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
@@ -3406,9 +3404,9 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="192"/>
-      <c r="B23" s="192"/>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="198"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="5" t="s">
         <v>24</v>
       </c>
@@ -3416,9 +3414,9 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="193"/>
-      <c r="B24" s="193"/>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="199"/>
+      <c r="B24" s="199"/>
       <c r="C24" s="5" t="s">
         <v>138</v>
       </c>
@@ -3426,11 +3424,11 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="191">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="197">
         <v>5</v>
       </c>
-      <c r="B25" s="191" t="s">
+      <c r="B25" s="197" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -3440,9 +3438,9 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="192"/>
-      <c r="B26" s="192"/>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="198"/>
+      <c r="B26" s="198"/>
       <c r="C26" s="5" t="s">
         <v>25</v>
       </c>
@@ -3450,9 +3448,9 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="192"/>
-      <c r="B27" s="192"/>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="198"/>
+      <c r="B27" s="198"/>
       <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
@@ -3460,9 +3458,9 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="192"/>
-      <c r="B28" s="192"/>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="198"/>
+      <c r="B28" s="198"/>
       <c r="C28" s="5" t="s">
         <v>23</v>
       </c>
@@ -3470,9 +3468,9 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="192"/>
-      <c r="B29" s="192"/>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="198"/>
+      <c r="B29" s="198"/>
       <c r="C29" s="5" t="s">
         <v>24</v>
       </c>
@@ -3480,9 +3478,9 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="193"/>
-      <c r="B30" s="193"/>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="199"/>
+      <c r="B30" s="199"/>
       <c r="C30" s="5" t="s">
         <v>140</v>
       </c>
@@ -3490,11 +3488,11 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="191">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="197">
         <v>6</v>
       </c>
-      <c r="B31" s="191" t="s">
+      <c r="B31" s="197" t="s">
         <v>141</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -3504,9 +3502,9 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="192"/>
-      <c r="B32" s="192"/>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="198"/>
+      <c r="B32" s="198"/>
       <c r="C32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3514,9 +3512,9 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="192"/>
-      <c r="B33" s="192"/>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="198"/>
+      <c r="B33" s="198"/>
       <c r="C33" s="5" t="s">
         <v>142</v>
       </c>
@@ -3526,9 +3524,9 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="192"/>
-      <c r="B34" s="192"/>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="198"/>
+      <c r="B34" s="198"/>
       <c r="C34" s="5" t="s">
         <v>146</v>
       </c>
@@ -3538,19 +3536,19 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="193"/>
-      <c r="B35" s="193"/>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="199"/>
+      <c r="B35" s="199"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="191">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="197">
         <v>7</v>
       </c>
-      <c r="B36" s="191" t="s">
+      <c r="B36" s="197" t="s">
         <v>145</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -3560,9 +3558,9 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="192"/>
-      <c r="B37" s="192"/>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="198"/>
+      <c r="B37" s="198"/>
       <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
@@ -3570,9 +3568,9 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="192"/>
-      <c r="B38" s="192"/>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="198"/>
+      <c r="B38" s="198"/>
       <c r="C38" s="5" t="s">
         <v>134</v>
       </c>
@@ -3580,9 +3578,9 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="192"/>
-      <c r="B39" s="192"/>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="198"/>
+      <c r="B39" s="198"/>
       <c r="C39" s="5" t="s">
         <v>133</v>
       </c>
@@ -3590,9 +3588,9 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="192"/>
-      <c r="B40" s="192"/>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="198"/>
+      <c r="B40" s="198"/>
       <c r="C40" s="5" t="s">
         <v>135</v>
       </c>
@@ -3600,9 +3598,9 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="193"/>
-      <c r="B41" s="193"/>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="199"/>
+      <c r="B41" s="199"/>
       <c r="C41" s="5" t="s">
         <v>147</v>
       </c>
@@ -3610,11 +3608,11 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="194">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="200">
         <v>8</v>
       </c>
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="201" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -3624,9 +3622,9 @@
       <c r="E42" s="171"/>
       <c r="F42" s="171"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="194"/>
-      <c r="B43" s="187"/>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="200"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="5" t="s">
         <v>149</v>
       </c>
@@ -3634,9 +3632,9 @@
       <c r="E43" s="171"/>
       <c r="F43" s="171"/>
     </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="194"/>
-      <c r="B44" s="187"/>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="200"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="5" t="s">
         <v>150</v>
       </c>
@@ -3644,9 +3642,9 @@
       <c r="E44" s="171"/>
       <c r="F44" s="171"/>
     </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="194"/>
-      <c r="B45" s="187"/>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="200"/>
+      <c r="B45" s="201"/>
       <c r="C45" s="5" t="s">
         <v>151</v>
       </c>
@@ -3654,9 +3652,9 @@
       <c r="E45" s="171"/>
       <c r="F45" s="171"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="194"/>
-      <c r="B46" s="187"/>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="200"/>
+      <c r="B46" s="201"/>
       <c r="C46" s="5" t="s">
         <v>152</v>
       </c>
@@ -3664,11 +3662,11 @@
       <c r="E46" s="171"/>
       <c r="F46" s="171"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="188">
+    <row r="47" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="202">
         <v>9</v>
       </c>
-      <c r="B47" s="191" t="s">
+      <c r="B47" s="197" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="154" t="s">
@@ -3678,9 +3676,9 @@
       <c r="E47" s="169"/>
       <c r="F47" s="169"/>
     </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="189"/>
-      <c r="B48" s="192"/>
+    <row r="48" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="203"/>
+      <c r="B48" s="198"/>
       <c r="C48" s="154" t="s">
         <v>25</v>
       </c>
@@ -3688,9 +3686,9 @@
       <c r="E48" s="169"/>
       <c r="F48" s="169"/>
     </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="189"/>
-      <c r="B49" s="192"/>
+    <row r="49" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="203"/>
+      <c r="B49" s="198"/>
       <c r="C49" s="154" t="s">
         <v>22</v>
       </c>
@@ -3698,9 +3696,9 @@
       <c r="E49" s="169"/>
       <c r="F49" s="169"/>
     </row>
-    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="189"/>
-      <c r="B50" s="192"/>
+    <row r="50" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="203"/>
+      <c r="B50" s="198"/>
       <c r="C50" s="154" t="s">
         <v>23</v>
       </c>
@@ -3708,9 +3706,9 @@
       <c r="E50" s="169"/>
       <c r="F50" s="169"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="190"/>
-      <c r="B51" s="193"/>
+    <row r="51" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="204"/>
+      <c r="B51" s="199"/>
       <c r="C51" s="154" t="s">
         <v>24</v>
       </c>
@@ -3718,11 +3716,11 @@
       <c r="E51" s="169"/>
       <c r="F51" s="169"/>
     </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="188">
+    <row r="52" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="202">
         <v>10</v>
       </c>
-      <c r="B52" s="191" t="s">
+      <c r="B52" s="197" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="154" t="s">
@@ -3732,9 +3730,9 @@
       <c r="E52" s="169"/>
       <c r="F52" s="169"/>
     </row>
-    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="189"/>
-      <c r="B53" s="192"/>
+    <row r="53" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="203"/>
+      <c r="B53" s="198"/>
       <c r="C53" s="154" t="s">
         <v>25</v>
       </c>
@@ -3742,9 +3740,9 @@
       <c r="E53" s="169"/>
       <c r="F53" s="169"/>
     </row>
-    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="190"/>
-      <c r="B54" s="193"/>
+    <row r="54" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="204"/>
+      <c r="B54" s="199"/>
       <c r="C54" s="154" t="s">
         <v>153</v>
       </c>
@@ -3752,11 +3750,11 @@
       <c r="E54" s="169"/>
       <c r="F54" s="169"/>
     </row>
-    <row r="55" spans="1:6" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="188">
+    <row r="55" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="202">
         <v>11</v>
       </c>
-      <c r="B55" s="191" t="s">
+      <c r="B55" s="197" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="154" t="s">
@@ -3766,9 +3764,9 @@
       <c r="E55" s="169"/>
       <c r="F55" s="169"/>
     </row>
-    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="189"/>
-      <c r="B56" s="192"/>
+    <row r="56" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="203"/>
+      <c r="B56" s="198"/>
       <c r="C56" s="154" t="s">
         <v>25</v>
       </c>
@@ -3776,9 +3774,9 @@
       <c r="E56" s="169"/>
       <c r="F56" s="169"/>
     </row>
-    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="189"/>
-      <c r="B57" s="192"/>
+    <row r="57" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="203"/>
+      <c r="B57" s="198"/>
       <c r="C57" s="154" t="s">
         <v>22</v>
       </c>
@@ -3786,9 +3784,9 @@
       <c r="E57" s="169"/>
       <c r="F57" s="169"/>
     </row>
-    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="189"/>
-      <c r="B58" s="192"/>
+    <row r="58" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="203"/>
+      <c r="B58" s="198"/>
       <c r="C58" s="154" t="s">
         <v>23</v>
       </c>
@@ -3796,9 +3794,9 @@
       <c r="E58" s="169"/>
       <c r="F58" s="169"/>
     </row>
-    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="190"/>
-      <c r="B59" s="193"/>
+    <row r="59" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="204"/>
+      <c r="B59" s="199"/>
       <c r="C59" s="154" t="s">
         <v>155</v>
       </c>
@@ -3806,11 +3804,11 @@
       <c r="E59" s="169"/>
       <c r="F59" s="169"/>
     </row>
-    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="188">
+    <row r="60" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="202">
         <v>12</v>
       </c>
-      <c r="B60" s="191" t="s">
+      <c r="B60" s="197" t="s">
         <v>156</v>
       </c>
       <c r="C60" s="154" t="s">
@@ -3820,9 +3818,9 @@
       <c r="E60" s="169"/>
       <c r="F60" s="169"/>
     </row>
-    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="189"/>
-      <c r="B61" s="192"/>
+    <row r="61" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="203"/>
+      <c r="B61" s="198"/>
       <c r="C61" s="154" t="s">
         <v>22</v>
       </c>
@@ -3830,9 +3828,9 @@
       <c r="E61" s="169"/>
       <c r="F61" s="169"/>
     </row>
-    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="189"/>
-      <c r="B62" s="192"/>
+    <row r="62" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="203"/>
+      <c r="B62" s="198"/>
       <c r="C62" s="154" t="s">
         <v>157</v>
       </c>
@@ -3840,9 +3838,9 @@
       <c r="E62" s="169"/>
       <c r="F62" s="169"/>
     </row>
-    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="190"/>
-      <c r="B63" s="193"/>
+    <row r="63" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="204"/>
+      <c r="B63" s="199"/>
       <c r="C63" s="154" t="s">
         <v>158</v>
       </c>
@@ -3850,11 +3848,11 @@
       <c r="E63" s="169"/>
       <c r="F63" s="169"/>
     </row>
-    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="186">
+    <row r="64" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="205">
         <v>13</v>
       </c>
-      <c r="B64" s="187" t="s">
+      <c r="B64" s="201" t="s">
         <v>159</v>
       </c>
       <c r="C64" s="154" t="s">
@@ -3864,9 +3862,9 @@
       <c r="E64" s="169"/>
       <c r="F64" s="169"/>
     </row>
-    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="186"/>
-      <c r="B65" s="187"/>
+    <row r="65" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="205"/>
+      <c r="B65" s="201"/>
       <c r="C65" s="154" t="s">
         <v>160</v>
       </c>
@@ -3874,7 +3872,7 @@
       <c r="E65" s="169"/>
       <c r="F65" s="169"/>
     </row>
-    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A66" s="172"/>
       <c r="B66" s="173"/>
       <c r="C66" s="174"/>
@@ -3882,7 +3880,7 @@
       <c r="E66" s="172"/>
       <c r="F66" s="172"/>
     </row>
-    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A67" s="172"/>
       <c r="B67" s="173"/>
       <c r="C67" s="174"/>
@@ -3890,7 +3888,7 @@
       <c r="E67" s="172"/>
       <c r="F67" s="172"/>
     </row>
-    <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A68" s="172"/>
       <c r="B68" s="173"/>
       <c r="C68" s="174"/>
@@ -3898,7 +3896,7 @@
       <c r="E68" s="172"/>
       <c r="F68" s="172"/>
     </row>
-    <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A69" s="172"/>
       <c r="B69" s="173"/>
       <c r="C69" s="174"/>
@@ -3906,7 +3904,7 @@
       <c r="E69" s="172"/>
       <c r="F69" s="172"/>
     </row>
-    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A70" s="172"/>
       <c r="B70" s="173"/>
       <c r="C70" s="174"/>
@@ -3914,7 +3912,7 @@
       <c r="E70" s="172"/>
       <c r="F70" s="172"/>
     </row>
-    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A71" s="172"/>
       <c r="B71" s="173"/>
       <c r="C71" s="174"/>
@@ -3922,7 +3920,7 @@
       <c r="E71" s="172"/>
       <c r="F71" s="172"/>
     </row>
-    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A72" s="172"/>
       <c r="B72" s="173"/>
       <c r="C72" s="174"/>
@@ -3930,7 +3928,7 @@
       <c r="E72" s="172"/>
       <c r="F72" s="172"/>
     </row>
-    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A73" s="172"/>
       <c r="B73" s="173"/>
       <c r="C73" s="174"/>
@@ -3938,7 +3936,7 @@
       <c r="E73" s="172"/>
       <c r="F73" s="172"/>
     </row>
-    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A74" s="172"/>
       <c r="B74" s="173"/>
       <c r="C74" s="174"/>
@@ -3946,7 +3944,7 @@
       <c r="E74" s="172"/>
       <c r="F74" s="172"/>
     </row>
-    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A75" s="172"/>
       <c r="B75" s="173"/>
       <c r="C75" s="174"/>
@@ -3954,7 +3952,7 @@
       <c r="E75" s="172"/>
       <c r="F75" s="172"/>
     </row>
-    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A76" s="172"/>
       <c r="B76" s="173"/>
       <c r="C76" s="174"/>
@@ -3962,7 +3960,7 @@
       <c r="E76" s="172"/>
       <c r="F76" s="172"/>
     </row>
-    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A77" s="172"/>
       <c r="B77" s="173"/>
       <c r="C77" s="174"/>
@@ -3970,7 +3968,7 @@
       <c r="E77" s="172"/>
       <c r="F77" s="172"/>
     </row>
-    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A78" s="172"/>
       <c r="B78" s="173"/>
       <c r="C78" s="174"/>
@@ -3978,7 +3976,7 @@
       <c r="E78" s="172"/>
       <c r="F78" s="172"/>
     </row>
-    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A79" s="172"/>
       <c r="B79" s="173"/>
       <c r="C79" s="174"/>
@@ -3986,7 +3984,7 @@
       <c r="E79" s="172"/>
       <c r="F79" s="172"/>
     </row>
-    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A80" s="172"/>
       <c r="B80" s="173"/>
       <c r="C80" s="174"/>
@@ -3994,7 +3992,7 @@
       <c r="E80" s="172"/>
       <c r="F80" s="172"/>
     </row>
-    <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A81" s="172"/>
       <c r="B81" s="173"/>
       <c r="C81" s="174"/>
@@ -4002,7 +4000,7 @@
       <c r="E81" s="172"/>
       <c r="F81" s="172"/>
     </row>
-    <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A82" s="172"/>
       <c r="B82" s="173"/>
       <c r="C82" s="174"/>
@@ -4010,7 +4008,7 @@
       <c r="E82" s="172"/>
       <c r="F82" s="172"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="172"/>
       <c r="B83" s="175"/>
       <c r="C83" s="176"/>
@@ -4018,7 +4016,7 @@
       <c r="E83" s="172"/>
       <c r="F83" s="172"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="172"/>
       <c r="B84" s="175"/>
       <c r="C84" s="176"/>
@@ -4026,7 +4024,7 @@
       <c r="E84" s="172"/>
       <c r="F84" s="172"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="172"/>
       <c r="B85" s="175"/>
       <c r="C85" s="176"/>
@@ -4034,7 +4032,7 @@
       <c r="E85" s="172"/>
       <c r="F85" s="172"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="172"/>
       <c r="B86" s="175"/>
       <c r="C86" s="176"/>
@@ -4042,7 +4040,7 @@
       <c r="E86" s="172"/>
       <c r="F86" s="172"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="172"/>
       <c r="B87" s="175"/>
       <c r="C87" s="176"/>
@@ -4050,7 +4048,7 @@
       <c r="E87" s="172"/>
       <c r="F87" s="172"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="172"/>
       <c r="B88" s="175"/>
       <c r="C88" s="176"/>
@@ -4058,7 +4056,7 @@
       <c r="E88" s="172"/>
       <c r="F88" s="172"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="172"/>
       <c r="B89" s="175"/>
       <c r="C89" s="176"/>
@@ -4066,7 +4064,7 @@
       <c r="E89" s="172"/>
       <c r="F89" s="172"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="172"/>
       <c r="B90" s="175"/>
       <c r="C90" s="176"/>
@@ -4074,7 +4072,7 @@
       <c r="E90" s="172"/>
       <c r="F90" s="172"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="172"/>
       <c r="B91" s="175"/>
       <c r="C91" s="176"/>
@@ -4082,7 +4080,7 @@
       <c r="E91" s="172"/>
       <c r="F91" s="172"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="172"/>
       <c r="B92" s="175"/>
       <c r="C92" s="176"/>
@@ -4090,7 +4088,7 @@
       <c r="E92" s="172"/>
       <c r="F92" s="172"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="172"/>
       <c r="B93" s="175"/>
       <c r="C93" s="176"/>
@@ -4098,7 +4096,7 @@
       <c r="E93" s="172"/>
       <c r="F93" s="172"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="172"/>
       <c r="B94" s="175"/>
       <c r="C94" s="176"/>
@@ -4106,7 +4104,7 @@
       <c r="E94" s="172"/>
       <c r="F94" s="172"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="172"/>
       <c r="B95" s="175"/>
       <c r="C95" s="176"/>
@@ -4114,7 +4112,7 @@
       <c r="E95" s="172"/>
       <c r="F95" s="172"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="172"/>
       <c r="B96" s="175"/>
       <c r="C96" s="176"/>
@@ -4122,7 +4120,7 @@
       <c r="E96" s="172"/>
       <c r="F96" s="172"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="172"/>
       <c r="B97" s="175"/>
       <c r="C97" s="176"/>
@@ -4130,7 +4128,7 @@
       <c r="E97" s="172"/>
       <c r="F97" s="172"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="172"/>
       <c r="B98" s="175"/>
       <c r="C98" s="176"/>
@@ -4138,7 +4136,7 @@
       <c r="E98" s="172"/>
       <c r="F98" s="172"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="172"/>
       <c r="B99" s="175"/>
       <c r="C99" s="176"/>
@@ -4146,7 +4144,7 @@
       <c r="E99" s="172"/>
       <c r="F99" s="172"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="172"/>
       <c r="B100" s="175"/>
       <c r="C100" s="176"/>
@@ -4154,7 +4152,7 @@
       <c r="E100" s="172"/>
       <c r="F100" s="172"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="172"/>
       <c r="B101" s="175"/>
       <c r="C101" s="176"/>
@@ -4162,7 +4160,7 @@
       <c r="E101" s="172"/>
       <c r="F101" s="172"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="172"/>
       <c r="B102" s="175"/>
       <c r="C102" s="176"/>
@@ -4170,7 +4168,7 @@
       <c r="E102" s="172"/>
       <c r="F102" s="172"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="172"/>
       <c r="B103" s="175"/>
       <c r="C103" s="176"/>
@@ -4178,7 +4176,7 @@
       <c r="E103" s="172"/>
       <c r="F103" s="172"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="172"/>
       <c r="B104" s="175"/>
       <c r="C104" s="176"/>
@@ -4186,7 +4184,7 @@
       <c r="E104" s="172"/>
       <c r="F104" s="172"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="172"/>
       <c r="B105" s="175"/>
       <c r="C105" s="176"/>
@@ -4194,7 +4192,7 @@
       <c r="E105" s="172"/>
       <c r="F105" s="172"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="172"/>
       <c r="B106" s="175"/>
       <c r="C106" s="176"/>
@@ -4202,7 +4200,7 @@
       <c r="E106" s="172"/>
       <c r="F106" s="172"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="172"/>
       <c r="B107" s="175"/>
       <c r="C107" s="176"/>
@@ -4210,7 +4208,7 @@
       <c r="E107" s="172"/>
       <c r="F107" s="172"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="172"/>
       <c r="B108" s="175"/>
       <c r="C108" s="176"/>
@@ -4218,7 +4216,7 @@
       <c r="E108" s="172"/>
       <c r="F108" s="172"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="172"/>
       <c r="B109" s="175"/>
       <c r="C109" s="176"/>
@@ -4226,7 +4224,7 @@
       <c r="E109" s="172"/>
       <c r="F109" s="172"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="172"/>
       <c r="B110" s="175"/>
       <c r="C110" s="176"/>
@@ -4234,7 +4232,7 @@
       <c r="E110" s="172"/>
       <c r="F110" s="172"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="172"/>
       <c r="B111" s="175"/>
       <c r="C111" s="176"/>
@@ -4242,7 +4240,7 @@
       <c r="E111" s="172"/>
       <c r="F111" s="172"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="172"/>
       <c r="B112" s="175"/>
       <c r="C112" s="176"/>
@@ -4250,7 +4248,7 @@
       <c r="E112" s="172"/>
       <c r="F112" s="172"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="172"/>
       <c r="B113" s="175"/>
       <c r="C113" s="176"/>
@@ -4258,7 +4256,7 @@
       <c r="E113" s="172"/>
       <c r="F113" s="172"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="172"/>
       <c r="B114" s="175"/>
       <c r="C114" s="176"/>
@@ -4266,7 +4264,7 @@
       <c r="E114" s="172"/>
       <c r="F114" s="172"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="172"/>
       <c r="B115" s="175"/>
       <c r="C115" s="176"/>
@@ -4274,7 +4272,7 @@
       <c r="E115" s="172"/>
       <c r="F115" s="172"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="172"/>
       <c r="B116" s="175"/>
       <c r="C116" s="176"/>
@@ -4282,7 +4280,7 @@
       <c r="E116" s="172"/>
       <c r="F116" s="172"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="172"/>
       <c r="B117" s="175"/>
       <c r="C117" s="176"/>
@@ -4290,7 +4288,7 @@
       <c r="E117" s="172"/>
       <c r="F117" s="172"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="172"/>
       <c r="B118" s="175"/>
       <c r="C118" s="176"/>
@@ -4298,7 +4296,7 @@
       <c r="E118" s="172"/>
       <c r="F118" s="172"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="172"/>
       <c r="B119" s="175"/>
       <c r="C119" s="176"/>
@@ -4306,7 +4304,7 @@
       <c r="E119" s="172"/>
       <c r="F119" s="172"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="172"/>
       <c r="B120" s="175"/>
       <c r="C120" s="176"/>
@@ -4314,7 +4312,7 @@
       <c r="E120" s="172"/>
       <c r="F120" s="172"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="172"/>
       <c r="B121" s="175"/>
       <c r="C121" s="176"/>
@@ -4322,7 +4320,7 @@
       <c r="E121" s="172"/>
       <c r="F121" s="172"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="172"/>
       <c r="B122" s="175"/>
       <c r="C122" s="176"/>
@@ -4330,7 +4328,7 @@
       <c r="E122" s="172"/>
       <c r="F122" s="172"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="172"/>
       <c r="B123" s="175"/>
       <c r="C123" s="176"/>
@@ -4338,7 +4336,7 @@
       <c r="E123" s="172"/>
       <c r="F123" s="172"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="172"/>
       <c r="B124" s="175"/>
       <c r="C124" s="176"/>
@@ -4346,7 +4344,7 @@
       <c r="E124" s="172"/>
       <c r="F124" s="172"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="172"/>
       <c r="B125" s="175"/>
       <c r="C125" s="176"/>
@@ -4354,7 +4352,7 @@
       <c r="E125" s="172"/>
       <c r="F125" s="172"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="172"/>
       <c r="B126" s="175"/>
       <c r="C126" s="176"/>
@@ -4362,7 +4360,7 @@
       <c r="E126" s="172"/>
       <c r="F126" s="172"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="172"/>
       <c r="B127" s="175"/>
       <c r="C127" s="176"/>
@@ -4370,7 +4368,7 @@
       <c r="E127" s="172"/>
       <c r="F127" s="172"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="172"/>
       <c r="B128" s="175"/>
       <c r="C128" s="176"/>
@@ -4378,7 +4376,7 @@
       <c r="E128" s="172"/>
       <c r="F128" s="172"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="172"/>
       <c r="B129" s="175"/>
       <c r="C129" s="176"/>
@@ -4386,7 +4384,7 @@
       <c r="E129" s="172"/>
       <c r="F129" s="172"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="172"/>
       <c r="B130" s="175"/>
       <c r="C130" s="176"/>
@@ -4394,7 +4392,7 @@
       <c r="E130" s="172"/>
       <c r="F130" s="172"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="172"/>
       <c r="B131" s="175"/>
       <c r="C131" s="176"/>
@@ -4402,7 +4400,7 @@
       <c r="E131" s="172"/>
       <c r="F131" s="172"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="172"/>
       <c r="B132" s="175"/>
       <c r="C132" s="176"/>
@@ -4410,7 +4408,7 @@
       <c r="E132" s="172"/>
       <c r="F132" s="172"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="172"/>
       <c r="B133" s="175"/>
       <c r="C133" s="176"/>
@@ -4418,7 +4416,7 @@
       <c r="E133" s="172"/>
       <c r="F133" s="172"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="172"/>
       <c r="B134" s="175"/>
       <c r="C134" s="176"/>
@@ -4426,7 +4424,7 @@
       <c r="E134" s="172"/>
       <c r="F134" s="172"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="172"/>
       <c r="B135" s="175"/>
       <c r="C135" s="176"/>
@@ -4434,7 +4432,7 @@
       <c r="E135" s="172"/>
       <c r="F135" s="172"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="172"/>
       <c r="B136" s="175"/>
       <c r="C136" s="176"/>
@@ -4442,7 +4440,7 @@
       <c r="E136" s="172"/>
       <c r="F136" s="172"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="172"/>
       <c r="B137" s="175"/>
       <c r="C137" s="176"/>
@@ -4450,7 +4448,7 @@
       <c r="E137" s="172"/>
       <c r="F137" s="172"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="172"/>
       <c r="B138" s="175"/>
       <c r="C138" s="176"/>
@@ -4458,7 +4456,7 @@
       <c r="E138" s="172"/>
       <c r="F138" s="172"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="172"/>
       <c r="B139" s="175"/>
       <c r="C139" s="176"/>
@@ -4466,7 +4464,7 @@
       <c r="E139" s="172"/>
       <c r="F139" s="172"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="172"/>
       <c r="B140" s="175"/>
       <c r="C140" s="176"/>
@@ -4474,7 +4472,7 @@
       <c r="E140" s="172"/>
       <c r="F140" s="172"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="172"/>
       <c r="B141" s="175"/>
       <c r="C141" s="176"/>
@@ -4482,7 +4480,7 @@
       <c r="E141" s="172"/>
       <c r="F141" s="172"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="172"/>
       <c r="B142" s="175"/>
       <c r="C142" s="176"/>
@@ -4490,7 +4488,7 @@
       <c r="E142" s="172"/>
       <c r="F142" s="172"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="172"/>
       <c r="B143" s="175"/>
       <c r="C143" s="176"/>
@@ -4498,7 +4496,7 @@
       <c r="E143" s="172"/>
       <c r="F143" s="172"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="172"/>
       <c r="B144" s="175"/>
       <c r="C144" s="176"/>
@@ -4506,7 +4504,7 @@
       <c r="E144" s="172"/>
       <c r="F144" s="172"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="172"/>
       <c r="B145" s="175"/>
       <c r="C145" s="176"/>
@@ -4516,6 +4514,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="A31:A35"/>
@@ -4528,129 +4540,115 @@
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="177" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="177" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="177"/>
-    <col min="4" max="4" width="22.7109375" style="177" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="177"/>
-    <col min="6" max="6" width="16.42578125" style="177" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="177"/>
+    <col min="1" max="1" width="19.109375" style="177" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="177" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="177"/>
+    <col min="4" max="4" width="22.6640625" style="177" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="177"/>
+    <col min="6" max="6" width="16.44140625" style="177" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="177"/>
     <col min="8" max="8" width="21" style="177" customWidth="1"/>
-    <col min="9" max="11" width="8.85546875" style="177"/>
-    <col min="12" max="12" width="17.28515625" style="177" customWidth="1"/>
-    <col min="13" max="20" width="8.85546875" style="206"/>
-    <col min="21" max="16384" width="8.85546875" style="177"/>
+    <col min="9" max="11" width="8.88671875" style="177"/>
+    <col min="12" max="12" width="17.33203125" style="177" customWidth="1"/>
+    <col min="13" max="20" width="8.88671875" style="185"/>
+    <col min="21" max="16384" width="8.88671875" style="177"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="178" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="177" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="177" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="177" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="177" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="177" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="177" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="177" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="177" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="177" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="177" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="177" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="177" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="177" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="195" t="s">
+    <row r="16" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="189" t="s">
         <v>164</v>
       </c>
       <c r="C16" s="184"/>
@@ -4659,7 +4657,7 @@
       </c>
       <c r="E16" s="184"/>
       <c r="F16" s="183" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G16" s="184"/>
       <c r="H16" s="184"/>
@@ -4667,28 +4665,28 @@
       <c r="J16" s="184"/>
       <c r="K16" s="184"/>
       <c r="L16" s="184"/>
-      <c r="M16" s="205" t="s">
-        <v>245</v>
-      </c>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
-      <c r="P16" s="205"/>
-      <c r="Q16" s="205"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="205"/>
-      <c r="T16" s="205"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="195"/>
-      <c r="B17" s="211" t="s">
+      <c r="M16" s="207" t="s">
+        <v>244</v>
+      </c>
+      <c r="N16" s="207"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="207"/>
+      <c r="Q16" s="207"/>
+      <c r="R16" s="207"/>
+      <c r="S16" s="207"/>
+      <c r="T16" s="207"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="210"/>
+      <c r="B17" s="190" t="s">
         <v>178</v>
       </c>
       <c r="C17" s="184"/>
-      <c r="D17" s="212" t="s">
+      <c r="D17" s="191" t="s">
         <v>178</v>
       </c>
       <c r="E17" s="184"/>
-      <c r="F17" s="212" t="s">
+      <c r="F17" s="191" t="s">
         <v>178</v>
       </c>
       <c r="G17" s="184"/>
@@ -4697,18 +4695,18 @@
       <c r="J17" s="184"/>
       <c r="K17" s="184"/>
       <c r="L17" s="184"/>
-      <c r="M17" s="205"/>
-      <c r="N17" s="205"/>
-      <c r="O17" s="205"/>
-      <c r="P17" s="205"/>
-      <c r="Q17" s="205"/>
-      <c r="R17" s="205"/>
-      <c r="S17" s="205"/>
-      <c r="T17" s="205"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="195"/>
-      <c r="B18" s="210" t="s">
+      <c r="M17" s="207"/>
+      <c r="N17" s="207"/>
+      <c r="O17" s="207"/>
+      <c r="P17" s="207"/>
+      <c r="Q17" s="207"/>
+      <c r="R17" s="207"/>
+      <c r="S17" s="207"/>
+      <c r="T17" s="207"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="210"/>
+      <c r="B18" s="189" t="s">
         <v>161</v>
       </c>
       <c r="C18" s="184"/>
@@ -4725,18 +4723,18 @@
       <c r="J18" s="184"/>
       <c r="K18" s="184"/>
       <c r="L18" s="184"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="205"/>
-      <c r="Q18" s="205"/>
-      <c r="R18" s="205"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="205"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="195"/>
-      <c r="B19" s="210" t="s">
+      <c r="M18" s="207"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="207"/>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="207"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="207"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="210"/>
+      <c r="B19" s="189" t="s">
         <v>162</v>
       </c>
       <c r="C19" s="184"/>
@@ -4753,17 +4751,17 @@
       <c r="J19" s="184"/>
       <c r="K19" s="184"/>
       <c r="L19" s="184"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="205"/>
-      <c r="S19" s="205"/>
-      <c r="T19" s="205"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="195"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="207"/>
+      <c r="Q19" s="207"/>
+      <c r="R19" s="207"/>
+      <c r="S19" s="207"/>
+      <c r="T19" s="207"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="210"/>
       <c r="B20" s="184"/>
       <c r="C20" s="184"/>
       <c r="D20" s="183" t="s">
@@ -4779,19 +4777,19 @@
       <c r="J20" s="184"/>
       <c r="K20" s="184"/>
       <c r="L20" s="184"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
-      <c r="P20" s="205"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="205"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="195"/>
-      <c r="B21" s="210" t="s">
-        <v>242</v>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="207"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="210"/>
+      <c r="B21" s="189" t="s">
+        <v>241</v>
       </c>
       <c r="C21" s="184"/>
       <c r="D21" s="183" t="s">
@@ -4806,22 +4804,22 @@
       <c r="I21" s="184"/>
       <c r="J21" s="184"/>
       <c r="K21" s="184"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="205"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="205"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="205"/>
-      <c r="T21" s="205"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="195"/>
-      <c r="B22" s="210"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="207"/>
+      <c r="S21" s="207"/>
+      <c r="T21" s="207"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="210"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="184"/>
       <c r="D22" s="183" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E22" s="184"/>
       <c r="F22" s="184"/>
@@ -4830,24 +4828,24 @@
       <c r="I22" s="184"/>
       <c r="J22" s="184"/>
       <c r="K22" s="184"/>
-      <c r="L22" s="213"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
-      <c r="P22" s="205"/>
-      <c r="Q22" s="205"/>
-      <c r="R22" s="205"/>
-      <c r="S22" s="205"/>
-      <c r="T22" s="205"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="195"/>
-      <c r="B23" s="211" t="s">
+      <c r="L22" s="192"/>
+      <c r="M22" s="207"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="207"/>
+      <c r="Q22" s="207"/>
+      <c r="R22" s="207"/>
+      <c r="S22" s="207"/>
+      <c r="T22" s="207"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="210"/>
+      <c r="B23" s="190" t="s">
         <v>178</v>
       </c>
       <c r="C23" s="184"/>
       <c r="D23" s="183" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" s="184"/>
       <c r="F23" s="183" t="s">
@@ -4855,59 +4853,59 @@
       </c>
       <c r="G23" s="184"/>
       <c r="H23" s="183" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I23" s="184"/>
       <c r="J23" s="183" t="s">
         <v>194</v>
       </c>
       <c r="K23" s="184"/>
-      <c r="L23" s="213"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="205"/>
-      <c r="O23" s="205"/>
-      <c r="P23" s="205"/>
-      <c r="Q23" s="205"/>
-      <c r="R23" s="205"/>
-      <c r="S23" s="205"/>
-      <c r="T23" s="205"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="195"/>
-      <c r="B24" s="210" t="s">
+      <c r="L23" s="192"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="207"/>
+      <c r="P23" s="207"/>
+      <c r="Q23" s="207"/>
+      <c r="R23" s="207"/>
+      <c r="S23" s="207"/>
+      <c r="T23" s="207"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="210"/>
+      <c r="B24" s="189" t="s">
         <v>161</v>
       </c>
       <c r="C24" s="184"/>
       <c r="D24" s="183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E24" s="184"/>
       <c r="F24" s="183" t="s">
         <v>178</v>
       </c>
       <c r="G24" s="184"/>
-      <c r="H24" s="212" t="s">
+      <c r="H24" s="191" t="s">
         <v>192</v>
       </c>
       <c r="I24" s="184"/>
-      <c r="J24" s="212" t="s">
+      <c r="J24" s="191" t="s">
         <v>178</v>
       </c>
       <c r="K24" s="184"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
-      <c r="P24" s="205"/>
-      <c r="Q24" s="205"/>
-      <c r="R24" s="205"/>
-      <c r="S24" s="205"/>
-      <c r="T24" s="205"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="195"/>
-      <c r="B25" s="210" t="s">
-        <v>233</v>
+      <c r="L24" s="192"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
+      <c r="P24" s="207"/>
+      <c r="Q24" s="207"/>
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="210"/>
+      <c r="B25" s="189" t="s">
+        <v>198</v>
       </c>
       <c r="C25" s="184"/>
       <c r="D25" s="183" t="s">
@@ -4918,7 +4916,7 @@
         <v>161</v>
       </c>
       <c r="G25" s="184"/>
-      <c r="H25" s="212" t="s">
+      <c r="H25" s="191" t="s">
         <v>193</v>
       </c>
       <c r="I25" s="184"/>
@@ -4926,19 +4924,19 @@
         <v>161</v>
       </c>
       <c r="K25" s="184"/>
-      <c r="L25" s="213"/>
-      <c r="M25" s="205"/>
-      <c r="N25" s="205"/>
-      <c r="O25" s="205"/>
-      <c r="P25" s="205"/>
-      <c r="Q25" s="205"/>
-      <c r="R25" s="205"/>
-      <c r="S25" s="205"/>
-      <c r="T25" s="205"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="195"/>
-      <c r="B26" s="210" t="s">
+      <c r="L25" s="192"/>
+      <c r="M25" s="207"/>
+      <c r="N25" s="207"/>
+      <c r="O25" s="207"/>
+      <c r="P25" s="207"/>
+      <c r="Q25" s="207"/>
+      <c r="R25" s="207"/>
+      <c r="S25" s="207"/>
+      <c r="T25" s="207"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="210"/>
+      <c r="B26" s="189" t="s">
         <v>199</v>
       </c>
       <c r="C26" s="184"/>
@@ -4950,25 +4948,25 @@
         <v>179</v>
       </c>
       <c r="G26" s="184"/>
-      <c r="H26" s="212" t="s">
+      <c r="H26" s="191" t="s">
         <v>195</v>
       </c>
       <c r="I26" s="184"/>
       <c r="J26" s="184"/>
       <c r="K26" s="184"/>
-      <c r="L26" s="213"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="205"/>
-      <c r="Q26" s="205"/>
-      <c r="R26" s="205"/>
-      <c r="S26" s="205"/>
-      <c r="T26" s="205"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="195"/>
-      <c r="B27" s="210" t="s">
+      <c r="L26" s="192"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="207"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="207"/>
+      <c r="S26" s="207"/>
+      <c r="T26" s="207"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="210"/>
+      <c r="B27" s="189" t="s">
         <v>210</v>
       </c>
       <c r="C27" s="184"/>
@@ -4985,73 +4983,73 @@
       <c r="J27" s="184"/>
       <c r="K27" s="184"/>
       <c r="L27" s="184"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="205"/>
-      <c r="P27" s="205"/>
-      <c r="Q27" s="205"/>
-      <c r="R27" s="205"/>
-      <c r="S27" s="205"/>
-      <c r="T27" s="205"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="195"/>
-      <c r="B28" s="210" t="s">
-        <v>234</v>
+      <c r="M27" s="207"/>
+      <c r="N27" s="207"/>
+      <c r="O27" s="207"/>
+      <c r="P27" s="207"/>
+      <c r="Q27" s="207"/>
+      <c r="R27" s="207"/>
+      <c r="S27" s="207"/>
+      <c r="T27" s="207"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="210"/>
+      <c r="B28" s="189" t="s">
+        <v>233</v>
       </c>
       <c r="C28" s="184"/>
       <c r="D28" s="183" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E28" s="184"/>
       <c r="F28" s="184"/>
       <c r="G28" s="184"/>
       <c r="H28" s="183" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I28" s="184"/>
       <c r="J28" s="184"/>
       <c r="K28" s="184"/>
       <c r="L28" s="184"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="205"/>
-      <c r="Q28" s="205"/>
-      <c r="R28" s="205"/>
-      <c r="S28" s="205"/>
-      <c r="T28" s="205"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="195"/>
+      <c r="M28" s="207"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
+      <c r="P28" s="207"/>
+      <c r="Q28" s="207"/>
+      <c r="R28" s="207"/>
+      <c r="S28" s="207"/>
+      <c r="T28" s="207"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="210"/>
       <c r="B29" s="184"/>
       <c r="C29" s="184"/>
       <c r="D29" s="183" t="s">
-        <v>236</v>
-      </c>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
+        <v>235</v>
+      </c>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
       <c r="I29" s="184"/>
       <c r="J29" s="184"/>
       <c r="K29" s="184"/>
       <c r="L29" s="184"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="205"/>
-      <c r="O29" s="205"/>
-      <c r="P29" s="205"/>
-      <c r="Q29" s="205"/>
-      <c r="R29" s="205"/>
-      <c r="S29" s="205"/>
-      <c r="T29" s="205"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="195"/>
+      <c r="M29" s="207"/>
+      <c r="N29" s="207"/>
+      <c r="O29" s="207"/>
+      <c r="P29" s="207"/>
+      <c r="Q29" s="207"/>
+      <c r="R29" s="207"/>
+      <c r="S29" s="207"/>
+      <c r="T29" s="207"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="210"/>
       <c r="B30" s="184"/>
       <c r="C30" s="184"/>
       <c r="D30" s="184"/>
-      <c r="E30" s="213"/>
+      <c r="E30" s="192"/>
       <c r="F30" s="183" t="s">
         <v>188</v>
       </c>
@@ -5063,22 +5061,22 @@
       <c r="J30" s="184"/>
       <c r="K30" s="184"/>
       <c r="L30" s="184"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="205"/>
-      <c r="O30" s="205"/>
-      <c r="P30" s="205"/>
-      <c r="Q30" s="205"/>
-      <c r="R30" s="205"/>
-      <c r="S30" s="205"/>
-      <c r="T30" s="205"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="195"/>
+      <c r="M30" s="207"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="207"/>
+      <c r="Q30" s="207"/>
+      <c r="R30" s="207"/>
+      <c r="S30" s="207"/>
+      <c r="T30" s="207"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="210"/>
       <c r="B31" s="184"/>
       <c r="C31" s="184"/>
       <c r="D31" s="184"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="214" t="s">
+      <c r="E31" s="192"/>
+      <c r="F31" s="193" t="s">
         <v>178</v>
       </c>
       <c r="G31" s="184"/>
@@ -5089,21 +5087,21 @@
       <c r="J31" s="184"/>
       <c r="K31" s="184"/>
       <c r="L31" s="184"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="205"/>
-      <c r="O31" s="205"/>
-      <c r="P31" s="205"/>
-      <c r="Q31" s="205"/>
-      <c r="R31" s="205"/>
-      <c r="S31" s="205"/>
-      <c r="T31" s="205"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="195"/>
+      <c r="M31" s="207"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="207"/>
+      <c r="P31" s="207"/>
+      <c r="Q31" s="207"/>
+      <c r="R31" s="207"/>
+      <c r="S31" s="207"/>
+      <c r="T31" s="207"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="210"/>
       <c r="B32" s="184"/>
       <c r="C32" s="184"/>
       <c r="D32" s="184"/>
-      <c r="E32" s="213"/>
+      <c r="E32" s="192"/>
       <c r="F32" s="183" t="s">
         <v>161</v>
       </c>
@@ -5115,17 +5113,17 @@
       <c r="J32" s="184"/>
       <c r="K32" s="184"/>
       <c r="L32" s="184"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="205"/>
-      <c r="O32" s="205"/>
-      <c r="P32" s="205"/>
-      <c r="Q32" s="205"/>
-      <c r="R32" s="205"/>
-      <c r="S32" s="205"/>
-      <c r="T32" s="205"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="195"/>
+      <c r="M32" s="207"/>
+      <c r="N32" s="207"/>
+      <c r="O32" s="207"/>
+      <c r="P32" s="207"/>
+      <c r="Q32" s="207"/>
+      <c r="R32" s="207"/>
+      <c r="S32" s="207"/>
+      <c r="T32" s="207"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="210"/>
       <c r="B33" s="184"/>
       <c r="C33" s="184"/>
       <c r="D33" s="184"/>
@@ -5139,82 +5137,82 @@
       <c r="J33" s="184"/>
       <c r="K33" s="184"/>
       <c r="L33" s="184"/>
-      <c r="M33" s="205"/>
-      <c r="N33" s="205"/>
-      <c r="O33" s="205"/>
-      <c r="P33" s="205"/>
-      <c r="Q33" s="205"/>
-      <c r="R33" s="205"/>
-      <c r="S33" s="205"/>
-      <c r="T33" s="205"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="195"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="207"/>
+      <c r="O33" s="207"/>
+      <c r="P33" s="207"/>
+      <c r="Q33" s="207"/>
+      <c r="R33" s="207"/>
+      <c r="S33" s="207"/>
+      <c r="T33" s="207"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="210"/>
       <c r="B34" s="184"/>
       <c r="C34" s="184"/>
       <c r="D34" s="184"/>
       <c r="E34" s="184"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="192"/>
+      <c r="H34" s="192"/>
       <c r="I34" s="184"/>
       <c r="J34" s="184"/>
       <c r="K34" s="184"/>
       <c r="L34" s="184"/>
-      <c r="M34" s="205"/>
-      <c r="N34" s="205"/>
-      <c r="O34" s="205"/>
-      <c r="P34" s="205"/>
-      <c r="Q34" s="205"/>
-      <c r="R34" s="205"/>
-      <c r="S34" s="205"/>
-      <c r="T34" s="205"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="195"/>
+      <c r="M34" s="207"/>
+      <c r="N34" s="207"/>
+      <c r="O34" s="207"/>
+      <c r="P34" s="207"/>
+      <c r="Q34" s="207"/>
+      <c r="R34" s="207"/>
+      <c r="S34" s="207"/>
+      <c r="T34" s="207"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="210"/>
       <c r="B35" s="184"/>
       <c r="C35" s="184"/>
       <c r="D35" s="184"/>
       <c r="E35" s="184"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
       <c r="I35" s="184"/>
       <c r="J35" s="184"/>
       <c r="K35" s="184"/>
       <c r="L35" s="184"/>
-      <c r="M35" s="205"/>
-      <c r="N35" s="205"/>
-      <c r="O35" s="205"/>
-      <c r="P35" s="205"/>
-      <c r="Q35" s="205"/>
-      <c r="R35" s="205"/>
-      <c r="S35" s="205"/>
-      <c r="T35" s="205"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="195"/>
+      <c r="M35" s="207"/>
+      <c r="N35" s="207"/>
+      <c r="O35" s="207"/>
+      <c r="P35" s="207"/>
+      <c r="Q35" s="207"/>
+      <c r="R35" s="207"/>
+      <c r="S35" s="207"/>
+      <c r="T35" s="207"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="210"/>
       <c r="B36" s="184"/>
       <c r="C36" s="184"/>
       <c r="D36" s="184"/>
       <c r="E36" s="184"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="192"/>
       <c r="I36" s="184"/>
       <c r="J36" s="184"/>
       <c r="K36" s="184"/>
       <c r="L36" s="184"/>
-      <c r="M36" s="205"/>
-      <c r="N36" s="205"/>
-      <c r="O36" s="205"/>
-      <c r="P36" s="205"/>
-      <c r="Q36" s="205"/>
-      <c r="R36" s="205"/>
-      <c r="S36" s="205"/>
-      <c r="T36" s="205"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M36" s="207"/>
+      <c r="N36" s="207"/>
+      <c r="O36" s="207"/>
+      <c r="P36" s="207"/>
+      <c r="Q36" s="207"/>
+      <c r="R36" s="207"/>
+      <c r="S36" s="207"/>
+      <c r="T36" s="207"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="180"/>
       <c r="B37" s="181"/>
       <c r="C37" s="181"/>
@@ -5228,324 +5226,324 @@
       <c r="K37" s="181"/>
       <c r="L37" s="181"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="207" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="186" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="208" t="s">
+      <c r="B38" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="207"/>
-      <c r="D38" s="208" t="s">
+      <c r="C38" s="186"/>
+      <c r="D38" s="187" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="207"/>
-      <c r="F38" s="209" t="s">
+      <c r="E38" s="186"/>
+      <c r="F38" s="188" t="s">
         <v>174</v>
       </c>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="207"/>
-      <c r="K38" s="207"/>
-      <c r="L38" s="207"/>
-      <c r="M38" s="205" t="s">
-        <v>246</v>
-      </c>
-      <c r="N38" s="205"/>
-      <c r="O38" s="205"/>
-      <c r="P38" s="205"/>
-      <c r="Q38" s="205"/>
-      <c r="R38" s="205"/>
-      <c r="S38" s="205"/>
-      <c r="T38" s="205"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="207"/>
-      <c r="B39" s="208" t="s">
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="186"/>
+      <c r="L38" s="186"/>
+      <c r="M38" s="207" t="s">
+        <v>245</v>
+      </c>
+      <c r="N38" s="207"/>
+      <c r="O38" s="207"/>
+      <c r="P38" s="207"/>
+      <c r="Q38" s="207"/>
+      <c r="R38" s="207"/>
+      <c r="S38" s="207"/>
+      <c r="T38" s="207"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="186"/>
+      <c r="B39" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="207"/>
-      <c r="D39" s="208" t="s">
+      <c r="C39" s="186"/>
+      <c r="D39" s="187" t="s">
         <v>205</v>
       </c>
-      <c r="E39" s="207"/>
-      <c r="F39" s="208" t="s">
+      <c r="E39" s="186"/>
+      <c r="F39" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="G39" s="207"/>
-      <c r="H39" s="207"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="207"/>
-      <c r="K39" s="207"/>
-      <c r="L39" s="207"/>
-      <c r="M39" s="205"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="205"/>
-      <c r="P39" s="205"/>
-      <c r="Q39" s="205"/>
-      <c r="R39" s="205"/>
-      <c r="S39" s="205"/>
-      <c r="T39" s="205"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="207"/>
-      <c r="B40" s="208" t="s">
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="186"/>
+      <c r="L39" s="186"/>
+      <c r="M39" s="207"/>
+      <c r="N39" s="207"/>
+      <c r="O39" s="207"/>
+      <c r="P39" s="207"/>
+      <c r="Q39" s="207"/>
+      <c r="R39" s="207"/>
+      <c r="S39" s="207"/>
+      <c r="T39" s="207"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="186"/>
+      <c r="B40" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="207"/>
-      <c r="D40" s="208" t="s">
+      <c r="C40" s="186"/>
+      <c r="D40" s="187" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="207"/>
-      <c r="F40" s="208" t="s">
+      <c r="E40" s="186"/>
+      <c r="F40" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="207"/>
-      <c r="H40" s="207"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="207"/>
-      <c r="K40" s="207"/>
-      <c r="L40" s="207"/>
-      <c r="M40" s="205"/>
-      <c r="N40" s="205"/>
-      <c r="O40" s="205"/>
-      <c r="P40" s="205"/>
-      <c r="Q40" s="205"/>
-      <c r="R40" s="205"/>
-      <c r="S40" s="205"/>
-      <c r="T40" s="205"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="207"/>
-      <c r="B41" s="208" t="s">
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="186"/>
+      <c r="K40" s="186"/>
+      <c r="L40" s="186"/>
+      <c r="M40" s="207"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="207"/>
+      <c r="P40" s="207"/>
+      <c r="Q40" s="207"/>
+      <c r="R40" s="207"/>
+      <c r="S40" s="207"/>
+      <c r="T40" s="207"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="186"/>
+      <c r="B41" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="207"/>
-      <c r="D41" s="208" t="s">
+      <c r="C41" s="186"/>
+      <c r="D41" s="187" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="207"/>
-      <c r="K41" s="207"/>
-      <c r="L41" s="207"/>
-      <c r="M41" s="205"/>
-      <c r="N41" s="205"/>
-      <c r="O41" s="205"/>
-      <c r="P41" s="205"/>
-      <c r="Q41" s="205"/>
-      <c r="R41" s="205"/>
-      <c r="S41" s="205"/>
-      <c r="T41" s="205"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="207"/>
-      <c r="B42" s="208" t="s">
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="186"/>
+      <c r="L41" s="186"/>
+      <c r="M41" s="207"/>
+      <c r="N41" s="207"/>
+      <c r="O41" s="207"/>
+      <c r="P41" s="207"/>
+      <c r="Q41" s="207"/>
+      <c r="R41" s="207"/>
+      <c r="S41" s="207"/>
+      <c r="T41" s="207"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="186"/>
+      <c r="B42" s="187" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208" t="s">
+      <c r="C42" s="186"/>
+      <c r="D42" s="187" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="207"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="207"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="207"/>
-      <c r="K42" s="207"/>
-      <c r="L42" s="207"/>
-      <c r="M42" s="205"/>
-      <c r="N42" s="205"/>
-      <c r="O42" s="205"/>
-      <c r="P42" s="205"/>
-      <c r="Q42" s="205"/>
-      <c r="R42" s="205"/>
-      <c r="S42" s="205"/>
-      <c r="T42" s="205"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="207"/>
-      <c r="B43" s="208" t="s">
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+      <c r="H42" s="186"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="186"/>
+      <c r="L42" s="186"/>
+      <c r="M42" s="207"/>
+      <c r="N42" s="207"/>
+      <c r="O42" s="207"/>
+      <c r="P42" s="207"/>
+      <c r="Q42" s="207"/>
+      <c r="R42" s="207"/>
+      <c r="S42" s="207"/>
+      <c r="T42" s="207"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="186"/>
+      <c r="B43" s="187" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208" t="s">
+      <c r="C43" s="186"/>
+      <c r="D43" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="E43" s="207"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="207"/>
-      <c r="H43" s="207"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="207"/>
-      <c r="K43" s="207"/>
-      <c r="L43" s="207"/>
-      <c r="M43" s="205"/>
-      <c r="N43" s="205"/>
-      <c r="O43" s="205"/>
-      <c r="P43" s="205"/>
-      <c r="Q43" s="205"/>
-      <c r="R43" s="205"/>
-      <c r="S43" s="205"/>
-      <c r="T43" s="205"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="207"/>
-      <c r="B44" s="208" t="s">
+      <c r="E43" s="186"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="186"/>
+      <c r="H43" s="186"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="186"/>
+      <c r="K43" s="186"/>
+      <c r="L43" s="186"/>
+      <c r="M43" s="207"/>
+      <c r="N43" s="207"/>
+      <c r="O43" s="207"/>
+      <c r="P43" s="207"/>
+      <c r="Q43" s="207"/>
+      <c r="R43" s="207"/>
+      <c r="S43" s="207"/>
+      <c r="T43" s="207"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="186"/>
+      <c r="B44" s="187" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208" t="s">
+      <c r="C44" s="186"/>
+      <c r="D44" s="187" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="207"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="207"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="207"/>
-      <c r="K44" s="207"/>
-      <c r="L44" s="207"/>
-      <c r="M44" s="205"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="205"/>
-      <c r="P44" s="205"/>
-      <c r="Q44" s="205"/>
-      <c r="R44" s="205"/>
-      <c r="S44" s="205"/>
-      <c r="T44" s="205"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="207"/>
-      <c r="B45" s="208" t="s">
+      <c r="E44" s="186"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="186"/>
+      <c r="H44" s="186"/>
+      <c r="I44" s="186"/>
+      <c r="J44" s="186"/>
+      <c r="K44" s="186"/>
+      <c r="L44" s="186"/>
+      <c r="M44" s="207"/>
+      <c r="N44" s="207"/>
+      <c r="O44" s="207"/>
+      <c r="P44" s="207"/>
+      <c r="Q44" s="207"/>
+      <c r="R44" s="207"/>
+      <c r="S44" s="207"/>
+      <c r="T44" s="207"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="186"/>
+      <c r="B45" s="187" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208" t="s">
+      <c r="C45" s="186"/>
+      <c r="D45" s="187" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="207"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="207"/>
-      <c r="H45" s="207"/>
-      <c r="I45" s="207"/>
-      <c r="J45" s="207"/>
-      <c r="K45" s="207"/>
-      <c r="L45" s="207"/>
-      <c r="M45" s="205"/>
-      <c r="N45" s="205"/>
-      <c r="O45" s="205"/>
-      <c r="P45" s="205"/>
-      <c r="Q45" s="205"/>
-      <c r="R45" s="205"/>
-      <c r="S45" s="205"/>
-      <c r="T45" s="205"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="207"/>
-      <c r="B46" s="208" t="s">
+      <c r="E45" s="186"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="186"/>
+      <c r="H45" s="186"/>
+      <c r="I45" s="186"/>
+      <c r="J45" s="186"/>
+      <c r="K45" s="186"/>
+      <c r="L45" s="186"/>
+      <c r="M45" s="207"/>
+      <c r="N45" s="207"/>
+      <c r="O45" s="207"/>
+      <c r="P45" s="207"/>
+      <c r="Q45" s="207"/>
+      <c r="R45" s="207"/>
+      <c r="S45" s="207"/>
+      <c r="T45" s="207"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="186"/>
+      <c r="B46" s="187" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="207"/>
-      <c r="D46" s="208" t="s">
+      <c r="C46" s="186"/>
+      <c r="D46" s="187" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="207"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="207"/>
-      <c r="H46" s="207"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="207"/>
-      <c r="K46" s="207"/>
-      <c r="L46" s="207"/>
-      <c r="M46" s="205"/>
-      <c r="N46" s="205"/>
-      <c r="O46" s="205"/>
-      <c r="P46" s="205"/>
-      <c r="Q46" s="205"/>
-      <c r="R46" s="205"/>
-      <c r="S46" s="205"/>
-      <c r="T46" s="205"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="207"/>
-      <c r="B47" s="208" t="s">
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
+      <c r="J46" s="186"/>
+      <c r="K46" s="186"/>
+      <c r="L46" s="186"/>
+      <c r="M46" s="207"/>
+      <c r="N46" s="207"/>
+      <c r="O46" s="207"/>
+      <c r="P46" s="207"/>
+      <c r="Q46" s="207"/>
+      <c r="R46" s="207"/>
+      <c r="S46" s="207"/>
+      <c r="T46" s="207"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="186"/>
+      <c r="B47" s="187" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="207"/>
-      <c r="D47" s="207"/>
-      <c r="E47" s="207"/>
-      <c r="F47" s="207"/>
-      <c r="G47" s="207"/>
-      <c r="H47" s="207"/>
-      <c r="I47" s="207"/>
-      <c r="J47" s="207"/>
-      <c r="K47" s="207"/>
-      <c r="L47" s="207"/>
-      <c r="M47" s="205"/>
-      <c r="N47" s="205"/>
-      <c r="O47" s="205"/>
-      <c r="P47" s="205"/>
-      <c r="Q47" s="205"/>
-      <c r="R47" s="205"/>
-      <c r="S47" s="205"/>
-      <c r="T47" s="205"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="207"/>
-      <c r="B48" s="208" t="s">
+      <c r="C47" s="186"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="H47" s="186"/>
+      <c r="I47" s="186"/>
+      <c r="J47" s="186"/>
+      <c r="K47" s="186"/>
+      <c r="L47" s="186"/>
+      <c r="M47" s="207"/>
+      <c r="N47" s="207"/>
+      <c r="O47" s="207"/>
+      <c r="P47" s="207"/>
+      <c r="Q47" s="207"/>
+      <c r="R47" s="207"/>
+      <c r="S47" s="207"/>
+      <c r="T47" s="207"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="186"/>
+      <c r="B48" s="187" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="207"/>
-      <c r="D48" s="207"/>
-      <c r="E48" s="207"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="207"/>
-      <c r="H48" s="207"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="207"/>
-      <c r="K48" s="207"/>
-      <c r="L48" s="207"/>
-      <c r="M48" s="205"/>
-      <c r="N48" s="205"/>
-      <c r="O48" s="205"/>
-      <c r="P48" s="205"/>
-      <c r="Q48" s="205"/>
-      <c r="R48" s="205"/>
-      <c r="S48" s="205"/>
-      <c r="T48" s="205"/>
-    </row>
-    <row r="49" spans="1:20" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="207"/>
-      <c r="B49" s="208" t="s">
+      <c r="C48" s="186"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="186"/>
+      <c r="L48" s="186"/>
+      <c r="M48" s="207"/>
+      <c r="N48" s="207"/>
+      <c r="O48" s="207"/>
+      <c r="P48" s="207"/>
+      <c r="Q48" s="207"/>
+      <c r="R48" s="207"/>
+      <c r="S48" s="207"/>
+      <c r="T48" s="207"/>
+    </row>
+    <row r="49" spans="1:20" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="186"/>
+      <c r="B49" s="187" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="207"/>
-      <c r="K49" s="207"/>
-      <c r="L49" s="207"/>
-      <c r="M49" s="205"/>
-      <c r="N49" s="205"/>
-      <c r="O49" s="205"/>
-      <c r="P49" s="205"/>
-      <c r="Q49" s="205"/>
-      <c r="R49" s="205"/>
-      <c r="S49" s="205"/>
-      <c r="T49" s="205"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="197" t="s">
+      <c r="C49" s="186"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="186"/>
+      <c r="L49" s="186"/>
+      <c r="M49" s="207"/>
+      <c r="N49" s="207"/>
+      <c r="O49" s="207"/>
+      <c r="P49" s="207"/>
+      <c r="Q49" s="207"/>
+      <c r="R49" s="207"/>
+      <c r="S49" s="207"/>
+      <c r="T49" s="207"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="214" t="s">
         <v>168</v>
       </c>
       <c r="B51" s="183" t="s">
@@ -5561,19 +5559,19 @@
       <c r="J51" s="184"/>
       <c r="K51" s="184"/>
       <c r="L51" s="184"/>
-      <c r="M51" s="205" t="s">
-        <v>247</v>
-      </c>
-      <c r="N51" s="205"/>
-      <c r="O51" s="205"/>
-      <c r="P51" s="205"/>
-      <c r="Q51" s="205"/>
-      <c r="R51" s="205"/>
-      <c r="S51" s="205"/>
-      <c r="T51" s="205"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="198"/>
+      <c r="M51" s="207" t="s">
+        <v>246</v>
+      </c>
+      <c r="N51" s="207"/>
+      <c r="O51" s="207"/>
+      <c r="P51" s="207"/>
+      <c r="Q51" s="207"/>
+      <c r="R51" s="207"/>
+      <c r="S51" s="207"/>
+      <c r="T51" s="207"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="215"/>
       <c r="B52" s="183" t="s">
         <v>178</v>
       </c>
@@ -5587,17 +5585,17 @@
       <c r="J52" s="184"/>
       <c r="K52" s="184"/>
       <c r="L52" s="184"/>
-      <c r="M52" s="205"/>
-      <c r="N52" s="205"/>
-      <c r="O52" s="205"/>
-      <c r="P52" s="205"/>
-      <c r="Q52" s="205"/>
-      <c r="R52" s="205"/>
-      <c r="S52" s="205"/>
-      <c r="T52" s="205"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="198"/>
+      <c r="M52" s="207"/>
+      <c r="N52" s="207"/>
+      <c r="O52" s="207"/>
+      <c r="P52" s="207"/>
+      <c r="Q52" s="207"/>
+      <c r="R52" s="207"/>
+      <c r="S52" s="207"/>
+      <c r="T52" s="207"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="215"/>
       <c r="B53" s="183" t="s">
         <v>205</v>
       </c>
@@ -5611,17 +5609,17 @@
       <c r="J53" s="184"/>
       <c r="K53" s="184"/>
       <c r="L53" s="184"/>
-      <c r="M53" s="205"/>
-      <c r="N53" s="205"/>
-      <c r="O53" s="205"/>
-      <c r="P53" s="205"/>
-      <c r="Q53" s="205"/>
-      <c r="R53" s="205"/>
-      <c r="S53" s="205"/>
-      <c r="T53" s="205"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="198"/>
+      <c r="M53" s="207"/>
+      <c r="N53" s="207"/>
+      <c r="O53" s="207"/>
+      <c r="P53" s="207"/>
+      <c r="Q53" s="207"/>
+      <c r="R53" s="207"/>
+      <c r="S53" s="207"/>
+      <c r="T53" s="207"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="215"/>
       <c r="B54" s="183" t="s">
         <v>223</v>
       </c>
@@ -5637,17 +5635,17 @@
       <c r="J54" s="184"/>
       <c r="K54" s="184"/>
       <c r="L54" s="184"/>
-      <c r="M54" s="205"/>
-      <c r="N54" s="205"/>
-      <c r="O54" s="205"/>
-      <c r="P54" s="205"/>
-      <c r="Q54" s="205"/>
-      <c r="R54" s="205"/>
-      <c r="S54" s="205"/>
-      <c r="T54" s="205"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="198"/>
+      <c r="M54" s="207"/>
+      <c r="N54" s="207"/>
+      <c r="O54" s="207"/>
+      <c r="P54" s="207"/>
+      <c r="Q54" s="207"/>
+      <c r="R54" s="207"/>
+      <c r="S54" s="207"/>
+      <c r="T54" s="207"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="215"/>
       <c r="B55" s="183" t="s">
         <v>207</v>
       </c>
@@ -5661,297 +5659,297 @@
       <c r="J55" s="184"/>
       <c r="K55" s="184"/>
       <c r="L55" s="184"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="205"/>
-      <c r="O55" s="205"/>
-      <c r="P55" s="205"/>
-      <c r="Q55" s="205"/>
-      <c r="R55" s="205"/>
-      <c r="S55" s="205"/>
-      <c r="T55" s="205"/>
-    </row>
-    <row r="56" spans="1:20" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="199"/>
+      <c r="M55" s="207"/>
+      <c r="N55" s="207"/>
+      <c r="O55" s="207"/>
+      <c r="P55" s="207"/>
+      <c r="Q55" s="207"/>
+      <c r="R55" s="207"/>
+      <c r="S55" s="207"/>
+      <c r="T55" s="207"/>
+    </row>
+    <row r="56" spans="1:20" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="216"/>
       <c r="B56" s="183" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="196" t="s">
+      <c r="C56" s="208" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="203"/>
-      <c r="E56" s="203"/>
-      <c r="F56" s="203"/>
+      <c r="D56" s="209"/>
+      <c r="E56" s="209"/>
+      <c r="F56" s="209"/>
       <c r="G56" s="184"/>
       <c r="H56" s="184"/>
       <c r="I56" s="184"/>
       <c r="J56" s="184"/>
       <c r="K56" s="184"/>
       <c r="L56" s="184"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
-      <c r="O56" s="205"/>
-      <c r="P56" s="205"/>
-      <c r="Q56" s="205"/>
-      <c r="R56" s="205"/>
-      <c r="S56" s="205"/>
-      <c r="T56" s="205"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="218" t="s">
+      <c r="M56" s="207"/>
+      <c r="N56" s="207"/>
+      <c r="O56" s="207"/>
+      <c r="P56" s="207"/>
+      <c r="Q56" s="207"/>
+      <c r="R56" s="207"/>
+      <c r="S56" s="207"/>
+      <c r="T56" s="207"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="211" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="208" t="s">
+      <c r="B58" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="207"/>
-      <c r="D58" s="208" t="s">
+      <c r="C58" s="186"/>
+      <c r="D58" s="187" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="207"/>
-      <c r="F58" s="207"/>
-      <c r="G58" s="207"/>
-      <c r="H58" s="207"/>
-      <c r="I58" s="207"/>
-      <c r="J58" s="207"/>
-      <c r="K58" s="207"/>
-      <c r="L58" s="207"/>
-      <c r="M58" s="205" t="s">
-        <v>248</v>
-      </c>
-      <c r="N58" s="205"/>
-      <c r="O58" s="205"/>
-      <c r="P58" s="205"/>
-      <c r="Q58" s="205"/>
-      <c r="R58" s="205"/>
-      <c r="S58" s="205"/>
-      <c r="T58" s="205"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="219"/>
-      <c r="B59" s="208" t="s">
+      <c r="E58" s="186"/>
+      <c r="F58" s="186"/>
+      <c r="G58" s="186"/>
+      <c r="H58" s="186"/>
+      <c r="I58" s="186"/>
+      <c r="J58" s="186"/>
+      <c r="K58" s="186"/>
+      <c r="L58" s="186"/>
+      <c r="M58" s="207" t="s">
+        <v>247</v>
+      </c>
+      <c r="N58" s="207"/>
+      <c r="O58" s="207"/>
+      <c r="P58" s="207"/>
+      <c r="Q58" s="207"/>
+      <c r="R58" s="207"/>
+      <c r="S58" s="207"/>
+      <c r="T58" s="207"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="212"/>
+      <c r="B59" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="207"/>
-      <c r="D59" s="208" t="s">
+      <c r="C59" s="186"/>
+      <c r="D59" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="E59" s="207"/>
-      <c r="F59" s="207"/>
-      <c r="G59" s="207"/>
-      <c r="H59" s="207"/>
-      <c r="I59" s="207"/>
-      <c r="J59" s="207"/>
-      <c r="K59" s="207"/>
-      <c r="L59" s="207"/>
-      <c r="M59" s="205"/>
-      <c r="N59" s="205"/>
-      <c r="O59" s="205"/>
-      <c r="P59" s="205"/>
-      <c r="Q59" s="205"/>
-      <c r="R59" s="205"/>
-      <c r="S59" s="205"/>
-      <c r="T59" s="205"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="219"/>
-      <c r="B60" s="208" t="s">
+      <c r="E59" s="186"/>
+      <c r="F59" s="186"/>
+      <c r="G59" s="186"/>
+      <c r="H59" s="186"/>
+      <c r="I59" s="186"/>
+      <c r="J59" s="186"/>
+      <c r="K59" s="186"/>
+      <c r="L59" s="186"/>
+      <c r="M59" s="207"/>
+      <c r="N59" s="207"/>
+      <c r="O59" s="207"/>
+      <c r="P59" s="207"/>
+      <c r="Q59" s="207"/>
+      <c r="R59" s="207"/>
+      <c r="S59" s="207"/>
+      <c r="T59" s="207"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="212"/>
+      <c r="B60" s="187" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="207"/>
-      <c r="D60" s="208" t="s">
+      <c r="C60" s="186"/>
+      <c r="D60" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="207"/>
-      <c r="F60" s="207"/>
-      <c r="G60" s="207"/>
-      <c r="H60" s="207"/>
-      <c r="I60" s="207"/>
-      <c r="J60" s="207"/>
-      <c r="K60" s="207"/>
-      <c r="L60" s="207"/>
-      <c r="M60" s="205"/>
-      <c r="N60" s="205"/>
-      <c r="O60" s="205"/>
-      <c r="P60" s="205"/>
-      <c r="Q60" s="205"/>
-      <c r="R60" s="205"/>
-      <c r="S60" s="205"/>
-      <c r="T60" s="205"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="219"/>
-      <c r="B61" s="208" t="s">
+      <c r="E60" s="186"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="186"/>
+      <c r="H60" s="186"/>
+      <c r="I60" s="186"/>
+      <c r="J60" s="186"/>
+      <c r="K60" s="186"/>
+      <c r="L60" s="186"/>
+      <c r="M60" s="207"/>
+      <c r="N60" s="207"/>
+      <c r="O60" s="207"/>
+      <c r="P60" s="207"/>
+      <c r="Q60" s="207"/>
+      <c r="R60" s="207"/>
+      <c r="S60" s="207"/>
+      <c r="T60" s="207"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="212"/>
+      <c r="B61" s="187" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="207"/>
-      <c r="D61" s="208" t="s">
+      <c r="C61" s="186"/>
+      <c r="D61" s="187" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="207"/>
-      <c r="F61" s="207"/>
-      <c r="G61" s="207"/>
-      <c r="H61" s="207"/>
-      <c r="I61" s="207"/>
-      <c r="J61" s="207"/>
-      <c r="K61" s="207"/>
-      <c r="L61" s="207"/>
-      <c r="M61" s="205"/>
-      <c r="N61" s="205"/>
-      <c r="O61" s="205"/>
-      <c r="P61" s="205"/>
-      <c r="Q61" s="205"/>
-      <c r="R61" s="205"/>
-      <c r="S61" s="205"/>
-      <c r="T61" s="205"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="219"/>
-      <c r="B62" s="208" t="s">
+      <c r="E61" s="186"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="186"/>
+      <c r="H61" s="186"/>
+      <c r="I61" s="186"/>
+      <c r="J61" s="186"/>
+      <c r="K61" s="186"/>
+      <c r="L61" s="186"/>
+      <c r="M61" s="207"/>
+      <c r="N61" s="207"/>
+      <c r="O61" s="207"/>
+      <c r="P61" s="207"/>
+      <c r="Q61" s="207"/>
+      <c r="R61" s="207"/>
+      <c r="S61" s="207"/>
+      <c r="T61" s="207"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="212"/>
+      <c r="B62" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="207"/>
-      <c r="D62" s="208" t="s">
+      <c r="C62" s="186"/>
+      <c r="D62" s="187" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="207"/>
-      <c r="F62" s="207"/>
-      <c r="G62" s="207"/>
-      <c r="H62" s="207"/>
-      <c r="I62" s="207"/>
-      <c r="J62" s="207"/>
-      <c r="K62" s="207"/>
-      <c r="L62" s="207"/>
-      <c r="M62" s="205"/>
-      <c r="N62" s="205"/>
-      <c r="O62" s="205"/>
-      <c r="P62" s="205"/>
-      <c r="Q62" s="205"/>
-      <c r="R62" s="205"/>
-      <c r="S62" s="205"/>
-      <c r="T62" s="205"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="219"/>
-      <c r="B63" s="208" t="s">
+      <c r="E62" s="186"/>
+      <c r="F62" s="186"/>
+      <c r="G62" s="186"/>
+      <c r="H62" s="186"/>
+      <c r="I62" s="186"/>
+      <c r="J62" s="186"/>
+      <c r="K62" s="186"/>
+      <c r="L62" s="186"/>
+      <c r="M62" s="207"/>
+      <c r="N62" s="207"/>
+      <c r="O62" s="207"/>
+      <c r="P62" s="207"/>
+      <c r="Q62" s="207"/>
+      <c r="R62" s="207"/>
+      <c r="S62" s="207"/>
+      <c r="T62" s="207"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="212"/>
+      <c r="B63" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="207"/>
-      <c r="D63" s="207"/>
-      <c r="E63" s="207"/>
-      <c r="F63" s="207"/>
-      <c r="G63" s="207"/>
-      <c r="H63" s="207"/>
-      <c r="I63" s="207"/>
-      <c r="J63" s="207"/>
-      <c r="K63" s="207"/>
-      <c r="L63" s="207"/>
-      <c r="M63" s="205"/>
-      <c r="N63" s="205"/>
-      <c r="O63" s="205"/>
-      <c r="P63" s="205"/>
-      <c r="Q63" s="205"/>
-      <c r="R63" s="205"/>
-      <c r="S63" s="205"/>
-      <c r="T63" s="205"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="219"/>
-      <c r="B64" s="208" t="s">
+      <c r="C63" s="186"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="186"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="186"/>
+      <c r="H63" s="186"/>
+      <c r="I63" s="186"/>
+      <c r="J63" s="186"/>
+      <c r="K63" s="186"/>
+      <c r="L63" s="186"/>
+      <c r="M63" s="207"/>
+      <c r="N63" s="207"/>
+      <c r="O63" s="207"/>
+      <c r="P63" s="207"/>
+      <c r="Q63" s="207"/>
+      <c r="R63" s="207"/>
+      <c r="S63" s="207"/>
+      <c r="T63" s="207"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="212"/>
+      <c r="B64" s="187" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="207"/>
-      <c r="D64" s="207"/>
-      <c r="E64" s="207"/>
-      <c r="F64" s="207"/>
-      <c r="G64" s="207"/>
-      <c r="H64" s="207"/>
-      <c r="I64" s="207"/>
-      <c r="J64" s="207"/>
-      <c r="K64" s="207"/>
-      <c r="L64" s="207"/>
-      <c r="M64" s="205"/>
-      <c r="N64" s="205"/>
-      <c r="O64" s="205"/>
-      <c r="P64" s="205"/>
-      <c r="Q64" s="205"/>
-      <c r="R64" s="205"/>
-      <c r="S64" s="205"/>
-      <c r="T64" s="205"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="219"/>
-      <c r="B65" s="208" t="s">
+      <c r="C64" s="186"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="186"/>
+      <c r="F64" s="186"/>
+      <c r="G64" s="186"/>
+      <c r="H64" s="186"/>
+      <c r="I64" s="186"/>
+      <c r="J64" s="186"/>
+      <c r="K64" s="186"/>
+      <c r="L64" s="186"/>
+      <c r="M64" s="207"/>
+      <c r="N64" s="207"/>
+      <c r="O64" s="207"/>
+      <c r="P64" s="207"/>
+      <c r="Q64" s="207"/>
+      <c r="R64" s="207"/>
+      <c r="S64" s="207"/>
+      <c r="T64" s="207"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="212"/>
+      <c r="B65" s="187" t="s">
         <v>210</v>
       </c>
-      <c r="C65" s="207"/>
-      <c r="D65" s="207"/>
-      <c r="E65" s="207"/>
-      <c r="F65" s="207"/>
-      <c r="G65" s="207"/>
-      <c r="H65" s="207"/>
-      <c r="I65" s="207"/>
-      <c r="J65" s="207"/>
-      <c r="K65" s="207"/>
-      <c r="L65" s="207"/>
-      <c r="M65" s="205"/>
-      <c r="N65" s="205"/>
-      <c r="O65" s="205"/>
-      <c r="P65" s="205"/>
-      <c r="Q65" s="205"/>
-      <c r="R65" s="205"/>
-      <c r="S65" s="205"/>
-      <c r="T65" s="205"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="219"/>
-      <c r="B66" s="208" t="s">
+      <c r="C65" s="186"/>
+      <c r="D65" s="186"/>
+      <c r="E65" s="186"/>
+      <c r="F65" s="186"/>
+      <c r="G65" s="186"/>
+      <c r="H65" s="186"/>
+      <c r="I65" s="186"/>
+      <c r="J65" s="186"/>
+      <c r="K65" s="186"/>
+      <c r="L65" s="186"/>
+      <c r="M65" s="207"/>
+      <c r="N65" s="207"/>
+      <c r="O65" s="207"/>
+      <c r="P65" s="207"/>
+      <c r="Q65" s="207"/>
+      <c r="R65" s="207"/>
+      <c r="S65" s="207"/>
+      <c r="T65" s="207"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="212"/>
+      <c r="B66" s="187" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="207"/>
-      <c r="D66" s="207"/>
-      <c r="E66" s="207"/>
-      <c r="F66" s="207"/>
-      <c r="G66" s="207"/>
-      <c r="H66" s="207"/>
-      <c r="I66" s="207"/>
-      <c r="J66" s="207"/>
-      <c r="K66" s="207"/>
-      <c r="L66" s="207"/>
-      <c r="M66" s="205"/>
-      <c r="N66" s="205"/>
-      <c r="O66" s="205"/>
-      <c r="P66" s="205"/>
-      <c r="Q66" s="205"/>
-      <c r="R66" s="205"/>
-      <c r="S66" s="205"/>
-      <c r="T66" s="205"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="220"/>
-      <c r="B67" s="208" t="s">
+      <c r="C66" s="186"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="186"/>
+      <c r="F66" s="186"/>
+      <c r="G66" s="186"/>
+      <c r="H66" s="186"/>
+      <c r="I66" s="186"/>
+      <c r="J66" s="186"/>
+      <c r="K66" s="186"/>
+      <c r="L66" s="186"/>
+      <c r="M66" s="207"/>
+      <c r="N66" s="207"/>
+      <c r="O66" s="207"/>
+      <c r="P66" s="207"/>
+      <c r="Q66" s="207"/>
+      <c r="R66" s="207"/>
+      <c r="S66" s="207"/>
+      <c r="T66" s="207"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="213"/>
+      <c r="B67" s="187" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="207"/>
-      <c r="D67" s="207"/>
-      <c r="E67" s="207"/>
-      <c r="F67" s="207"/>
-      <c r="G67" s="207"/>
-      <c r="H67" s="207"/>
-      <c r="I67" s="207"/>
-      <c r="J67" s="207"/>
-      <c r="K67" s="207"/>
-      <c r="L67" s="207"/>
-      <c r="M67" s="205"/>
-      <c r="N67" s="205"/>
-      <c r="O67" s="205"/>
-      <c r="P67" s="205"/>
-      <c r="Q67" s="205"/>
-      <c r="R67" s="205"/>
-      <c r="S67" s="205"/>
-      <c r="T67" s="205"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="216" t="s">
+      <c r="C67" s="186"/>
+      <c r="D67" s="186"/>
+      <c r="E67" s="186"/>
+      <c r="F67" s="186"/>
+      <c r="G67" s="186"/>
+      <c r="H67" s="186"/>
+      <c r="I67" s="186"/>
+      <c r="J67" s="186"/>
+      <c r="K67" s="186"/>
+      <c r="L67" s="186"/>
+      <c r="M67" s="207"/>
+      <c r="N67" s="207"/>
+      <c r="O67" s="207"/>
+      <c r="P67" s="207"/>
+      <c r="Q67" s="207"/>
+      <c r="R67" s="207"/>
+      <c r="S67" s="207"/>
+      <c r="T67" s="207"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" s="217" t="s">
         <v>173</v>
       </c>
       <c r="B69" s="183" t="s">
@@ -5967,19 +5965,19 @@
       <c r="J69" s="184"/>
       <c r="K69" s="184"/>
       <c r="L69" s="184"/>
-      <c r="M69" s="205" t="s">
-        <v>249</v>
-      </c>
-      <c r="N69" s="205"/>
-      <c r="O69" s="205"/>
-      <c r="P69" s="205"/>
-      <c r="Q69" s="205"/>
-      <c r="R69" s="205"/>
-      <c r="S69" s="205"/>
-      <c r="T69" s="205"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="217"/>
+      <c r="M69" s="207" t="s">
+        <v>248</v>
+      </c>
+      <c r="N69" s="207"/>
+      <c r="O69" s="207"/>
+      <c r="P69" s="207"/>
+      <c r="Q69" s="207"/>
+      <c r="R69" s="207"/>
+      <c r="S69" s="207"/>
+      <c r="T69" s="207"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="218"/>
       <c r="B70" s="183" t="s">
         <v>178</v>
       </c>
@@ -5993,17 +5991,17 @@
       <c r="J70" s="184"/>
       <c r="K70" s="184"/>
       <c r="L70" s="184"/>
-      <c r="M70" s="205"/>
-      <c r="N70" s="205"/>
-      <c r="O70" s="205"/>
-      <c r="P70" s="205"/>
-      <c r="Q70" s="205"/>
-      <c r="R70" s="205"/>
-      <c r="S70" s="205"/>
-      <c r="T70" s="205"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="217"/>
+      <c r="M70" s="207"/>
+      <c r="N70" s="207"/>
+      <c r="O70" s="207"/>
+      <c r="P70" s="207"/>
+      <c r="Q70" s="207"/>
+      <c r="R70" s="207"/>
+      <c r="S70" s="207"/>
+      <c r="T70" s="207"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71" s="218"/>
       <c r="B71" s="183" t="s">
         <v>161</v>
       </c>
@@ -6017,17 +6015,17 @@
       <c r="J71" s="184"/>
       <c r="K71" s="184"/>
       <c r="L71" s="184"/>
-      <c r="M71" s="205"/>
-      <c r="N71" s="205"/>
-      <c r="O71" s="205"/>
-      <c r="P71" s="205"/>
-      <c r="Q71" s="205"/>
-      <c r="R71" s="205"/>
-      <c r="S71" s="205"/>
-      <c r="T71" s="205"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="217"/>
+      <c r="M71" s="207"/>
+      <c r="N71" s="207"/>
+      <c r="O71" s="207"/>
+      <c r="P71" s="207"/>
+      <c r="Q71" s="207"/>
+      <c r="R71" s="207"/>
+      <c r="S71" s="207"/>
+      <c r="T71" s="207"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72" s="218"/>
       <c r="B72" s="183" t="s">
         <v>149</v>
       </c>
@@ -6041,17 +6039,17 @@
       <c r="J72" s="184"/>
       <c r="K72" s="184"/>
       <c r="L72" s="184"/>
-      <c r="M72" s="205"/>
-      <c r="N72" s="205"/>
-      <c r="O72" s="205"/>
-      <c r="P72" s="205"/>
-      <c r="Q72" s="205"/>
-      <c r="R72" s="205"/>
-      <c r="S72" s="205"/>
-      <c r="T72" s="205"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="217"/>
+      <c r="M72" s="207"/>
+      <c r="N72" s="207"/>
+      <c r="O72" s="207"/>
+      <c r="P72" s="207"/>
+      <c r="Q72" s="207"/>
+      <c r="R72" s="207"/>
+      <c r="S72" s="207"/>
+      <c r="T72" s="207"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73" s="218"/>
       <c r="B73" s="183" t="s">
         <v>198</v>
       </c>
@@ -6065,17 +6063,17 @@
       <c r="J73" s="184"/>
       <c r="K73" s="184"/>
       <c r="L73" s="184"/>
-      <c r="M73" s="205"/>
-      <c r="N73" s="205"/>
-      <c r="O73" s="205"/>
-      <c r="P73" s="205"/>
-      <c r="Q73" s="205"/>
-      <c r="R73" s="205"/>
-      <c r="S73" s="205"/>
-      <c r="T73" s="205"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="217"/>
+      <c r="M73" s="207"/>
+      <c r="N73" s="207"/>
+      <c r="O73" s="207"/>
+      <c r="P73" s="207"/>
+      <c r="Q73" s="207"/>
+      <c r="R73" s="207"/>
+      <c r="S73" s="207"/>
+      <c r="T73" s="207"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="218"/>
       <c r="B74" s="183" t="s">
         <v>199</v>
       </c>
@@ -6089,17 +6087,17 @@
       <c r="J74" s="184"/>
       <c r="K74" s="184"/>
       <c r="L74" s="184"/>
-      <c r="M74" s="205"/>
-      <c r="N74" s="205"/>
-      <c r="O74" s="205"/>
-      <c r="P74" s="205"/>
-      <c r="Q74" s="205"/>
-      <c r="R74" s="205"/>
-      <c r="S74" s="205"/>
-      <c r="T74" s="205"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="217"/>
+      <c r="M74" s="207"/>
+      <c r="N74" s="207"/>
+      <c r="O74" s="207"/>
+      <c r="P74" s="207"/>
+      <c r="Q74" s="207"/>
+      <c r="R74" s="207"/>
+      <c r="S74" s="207"/>
+      <c r="T74" s="207"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="218"/>
       <c r="B75" s="183" t="s">
         <v>210</v>
       </c>
@@ -6113,17 +6111,17 @@
       <c r="J75" s="184"/>
       <c r="K75" s="184"/>
       <c r="L75" s="184"/>
-      <c r="M75" s="205"/>
-      <c r="N75" s="205"/>
-      <c r="O75" s="205"/>
-      <c r="P75" s="205"/>
-      <c r="Q75" s="205"/>
-      <c r="R75" s="205"/>
-      <c r="S75" s="205"/>
-      <c r="T75" s="205"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="217"/>
+      <c r="M75" s="207"/>
+      <c r="N75" s="207"/>
+      <c r="O75" s="207"/>
+      <c r="P75" s="207"/>
+      <c r="Q75" s="207"/>
+      <c r="R75" s="207"/>
+      <c r="S75" s="207"/>
+      <c r="T75" s="207"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" s="218"/>
       <c r="B76" s="183" t="s">
         <v>215</v>
       </c>
@@ -6137,17 +6135,17 @@
       <c r="J76" s="184"/>
       <c r="K76" s="184"/>
       <c r="L76" s="184"/>
-      <c r="M76" s="205"/>
-      <c r="N76" s="205"/>
-      <c r="O76" s="205"/>
-      <c r="P76" s="205"/>
-      <c r="Q76" s="205"/>
-      <c r="R76" s="205"/>
-      <c r="S76" s="205"/>
-      <c r="T76" s="205"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="217"/>
+      <c r="M76" s="207"/>
+      <c r="N76" s="207"/>
+      <c r="O76" s="207"/>
+      <c r="P76" s="207"/>
+      <c r="Q76" s="207"/>
+      <c r="R76" s="207"/>
+      <c r="S76" s="207"/>
+      <c r="T76" s="207"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77" s="218"/>
       <c r="B77" s="183" t="s">
         <v>216</v>
       </c>
@@ -6161,17 +6159,17 @@
       <c r="J77" s="184"/>
       <c r="K77" s="184"/>
       <c r="L77" s="184"/>
-      <c r="M77" s="205"/>
-      <c r="N77" s="205"/>
-      <c r="O77" s="205"/>
-      <c r="P77" s="205"/>
-      <c r="Q77" s="205"/>
-      <c r="R77" s="205"/>
-      <c r="S77" s="205"/>
-      <c r="T77" s="205"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="217"/>
+      <c r="M77" s="207"/>
+      <c r="N77" s="207"/>
+      <c r="O77" s="207"/>
+      <c r="P77" s="207"/>
+      <c r="Q77" s="207"/>
+      <c r="R77" s="207"/>
+      <c r="S77" s="207"/>
+      <c r="T77" s="207"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="218"/>
       <c r="B78" s="183" t="s">
         <v>217</v>
       </c>
@@ -6185,17 +6183,17 @@
       <c r="J78" s="184"/>
       <c r="K78" s="184"/>
       <c r="L78" s="184"/>
-      <c r="M78" s="205"/>
-      <c r="N78" s="205"/>
-      <c r="O78" s="205"/>
-      <c r="P78" s="205"/>
-      <c r="Q78" s="205"/>
-      <c r="R78" s="205"/>
-      <c r="S78" s="205"/>
-      <c r="T78" s="205"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="217"/>
+      <c r="M78" s="207"/>
+      <c r="N78" s="207"/>
+      <c r="O78" s="207"/>
+      <c r="P78" s="207"/>
+      <c r="Q78" s="207"/>
+      <c r="R78" s="207"/>
+      <c r="S78" s="207"/>
+      <c r="T78" s="207"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" s="218"/>
       <c r="B79" s="183" t="s">
         <v>218</v>
       </c>
@@ -6209,17 +6207,17 @@
       <c r="J79" s="184"/>
       <c r="K79" s="184"/>
       <c r="L79" s="184"/>
-      <c r="M79" s="205"/>
-      <c r="N79" s="205"/>
-      <c r="O79" s="205"/>
-      <c r="P79" s="205"/>
-      <c r="Q79" s="205"/>
-      <c r="R79" s="205"/>
-      <c r="S79" s="205"/>
-      <c r="T79" s="205"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="217"/>
+      <c r="M79" s="207"/>
+      <c r="N79" s="207"/>
+      <c r="O79" s="207"/>
+      <c r="P79" s="207"/>
+      <c r="Q79" s="207"/>
+      <c r="R79" s="207"/>
+      <c r="S79" s="207"/>
+      <c r="T79" s="207"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A80" s="218"/>
       <c r="B80" s="183" t="s">
         <v>219</v>
       </c>
@@ -6233,17 +6231,17 @@
       <c r="J80" s="184"/>
       <c r="K80" s="184"/>
       <c r="L80" s="184"/>
-      <c r="M80" s="205"/>
-      <c r="N80" s="205"/>
-      <c r="O80" s="205"/>
-      <c r="P80" s="205"/>
-      <c r="Q80" s="205"/>
-      <c r="R80" s="205"/>
-      <c r="S80" s="205"/>
-      <c r="T80" s="205"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="217"/>
+      <c r="M80" s="207"/>
+      <c r="N80" s="207"/>
+      <c r="O80" s="207"/>
+      <c r="P80" s="207"/>
+      <c r="Q80" s="207"/>
+      <c r="R80" s="207"/>
+      <c r="S80" s="207"/>
+      <c r="T80" s="207"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A81" s="218"/>
       <c r="B81" s="183" t="s">
         <v>220</v>
       </c>
@@ -6257,285 +6255,285 @@
       <c r="J81" s="184"/>
       <c r="K81" s="184"/>
       <c r="L81" s="184"/>
-      <c r="M81" s="205"/>
-      <c r="N81" s="205"/>
-      <c r="O81" s="205"/>
-      <c r="P81" s="205"/>
-      <c r="Q81" s="205"/>
-      <c r="R81" s="205"/>
-      <c r="S81" s="205"/>
-      <c r="T81" s="205"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="215" t="s">
+      <c r="M81" s="207"/>
+      <c r="N81" s="207"/>
+      <c r="O81" s="207"/>
+      <c r="P81" s="207"/>
+      <c r="Q81" s="207"/>
+      <c r="R81" s="207"/>
+      <c r="S81" s="207"/>
+      <c r="T81" s="207"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A83" s="219" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="208" t="s">
+      <c r="B83" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="207"/>
-      <c r="D83" s="207"/>
-      <c r="E83" s="207"/>
-      <c r="F83" s="207"/>
-      <c r="G83" s="207"/>
-      <c r="H83" s="207"/>
-      <c r="I83" s="207"/>
-      <c r="J83" s="207"/>
-      <c r="K83" s="207"/>
-      <c r="L83" s="207"/>
-      <c r="M83" s="205" t="s">
-        <v>250</v>
-      </c>
-      <c r="N83" s="205"/>
-      <c r="O83" s="205"/>
-      <c r="P83" s="205"/>
-      <c r="Q83" s="205"/>
-      <c r="R83" s="205"/>
-      <c r="S83" s="205"/>
-      <c r="T83" s="205"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="215"/>
-      <c r="B84" s="208" t="s">
+      <c r="C83" s="186"/>
+      <c r="D83" s="186"/>
+      <c r="E83" s="186"/>
+      <c r="F83" s="186"/>
+      <c r="G83" s="186"/>
+      <c r="H83" s="186"/>
+      <c r="I83" s="186"/>
+      <c r="J83" s="186"/>
+      <c r="K83" s="186"/>
+      <c r="L83" s="186"/>
+      <c r="M83" s="207" t="s">
+        <v>249</v>
+      </c>
+      <c r="N83" s="207"/>
+      <c r="O83" s="207"/>
+      <c r="P83" s="207"/>
+      <c r="Q83" s="207"/>
+      <c r="R83" s="207"/>
+      <c r="S83" s="207"/>
+      <c r="T83" s="207"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A84" s="219"/>
+      <c r="B84" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="207"/>
-      <c r="D84" s="207"/>
-      <c r="E84" s="207"/>
-      <c r="F84" s="207"/>
-      <c r="G84" s="207"/>
-      <c r="H84" s="207"/>
-      <c r="I84" s="207"/>
-      <c r="J84" s="207"/>
-      <c r="K84" s="207"/>
-      <c r="L84" s="207"/>
-      <c r="M84" s="205"/>
-      <c r="N84" s="205"/>
-      <c r="O84" s="205"/>
-      <c r="P84" s="205"/>
-      <c r="Q84" s="205"/>
-      <c r="R84" s="205"/>
-      <c r="S84" s="205"/>
-      <c r="T84" s="205"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="215"/>
-      <c r="B85" s="208" t="s">
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
+      <c r="F84" s="186"/>
+      <c r="G84" s="186"/>
+      <c r="H84" s="186"/>
+      <c r="I84" s="186"/>
+      <c r="J84" s="186"/>
+      <c r="K84" s="186"/>
+      <c r="L84" s="186"/>
+      <c r="M84" s="207"/>
+      <c r="N84" s="207"/>
+      <c r="O84" s="207"/>
+      <c r="P84" s="207"/>
+      <c r="Q84" s="207"/>
+      <c r="R84" s="207"/>
+      <c r="S84" s="207"/>
+      <c r="T84" s="207"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85" s="219"/>
+      <c r="B85" s="187" t="s">
         <v>221</v>
       </c>
-      <c r="C85" s="207"/>
-      <c r="D85" s="207"/>
-      <c r="E85" s="207"/>
-      <c r="F85" s="207"/>
-      <c r="G85" s="207"/>
-      <c r="H85" s="207"/>
-      <c r="I85" s="207"/>
-      <c r="J85" s="207"/>
-      <c r="K85" s="207"/>
-      <c r="L85" s="207"/>
-      <c r="M85" s="205"/>
-      <c r="N85" s="205"/>
-      <c r="O85" s="205"/>
-      <c r="P85" s="205"/>
-      <c r="Q85" s="205"/>
-      <c r="R85" s="205"/>
-      <c r="S85" s="205"/>
-      <c r="T85" s="205"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="215"/>
-      <c r="B86" s="208" t="s">
+      <c r="C85" s="186"/>
+      <c r="D85" s="186"/>
+      <c r="E85" s="186"/>
+      <c r="F85" s="186"/>
+      <c r="G85" s="186"/>
+      <c r="H85" s="186"/>
+      <c r="I85" s="186"/>
+      <c r="J85" s="186"/>
+      <c r="K85" s="186"/>
+      <c r="L85" s="186"/>
+      <c r="M85" s="207"/>
+      <c r="N85" s="207"/>
+      <c r="O85" s="207"/>
+      <c r="P85" s="207"/>
+      <c r="Q85" s="207"/>
+      <c r="R85" s="207"/>
+      <c r="S85" s="207"/>
+      <c r="T85" s="207"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A86" s="219"/>
+      <c r="B86" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="207"/>
-      <c r="D86" s="207"/>
-      <c r="E86" s="207"/>
-      <c r="F86" s="207"/>
-      <c r="G86" s="207"/>
-      <c r="H86" s="207"/>
-      <c r="I86" s="207"/>
-      <c r="J86" s="207"/>
-      <c r="K86" s="207"/>
-      <c r="L86" s="207"/>
-      <c r="M86" s="205"/>
-      <c r="N86" s="205"/>
-      <c r="O86" s="205"/>
-      <c r="P86" s="205"/>
-      <c r="Q86" s="205"/>
-      <c r="R86" s="205"/>
-      <c r="S86" s="205"/>
-      <c r="T86" s="205"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="215"/>
-      <c r="B87" s="208" t="s">
+      <c r="C86" s="186"/>
+      <c r="D86" s="186"/>
+      <c r="E86" s="186"/>
+      <c r="F86" s="186"/>
+      <c r="G86" s="186"/>
+      <c r="H86" s="186"/>
+      <c r="I86" s="186"/>
+      <c r="J86" s="186"/>
+      <c r="K86" s="186"/>
+      <c r="L86" s="186"/>
+      <c r="M86" s="207"/>
+      <c r="N86" s="207"/>
+      <c r="O86" s="207"/>
+      <c r="P86" s="207"/>
+      <c r="Q86" s="207"/>
+      <c r="R86" s="207"/>
+      <c r="S86" s="207"/>
+      <c r="T86" s="207"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A87" s="219"/>
+      <c r="B87" s="187" t="s">
         <v>185</v>
       </c>
-      <c r="C87" s="207"/>
-      <c r="D87" s="207"/>
-      <c r="E87" s="207"/>
-      <c r="F87" s="207"/>
-      <c r="G87" s="207"/>
-      <c r="H87" s="207"/>
-      <c r="I87" s="207"/>
-      <c r="J87" s="207"/>
-      <c r="K87" s="207"/>
-      <c r="L87" s="207"/>
-      <c r="M87" s="205"/>
-      <c r="N87" s="205"/>
-      <c r="O87" s="205"/>
-      <c r="P87" s="205"/>
-      <c r="Q87" s="205"/>
-      <c r="R87" s="205"/>
-      <c r="S87" s="205"/>
-      <c r="T87" s="205"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="215"/>
-      <c r="B88" s="208" t="s">
+      <c r="C87" s="186"/>
+      <c r="D87" s="186"/>
+      <c r="E87" s="186"/>
+      <c r="F87" s="186"/>
+      <c r="G87" s="186"/>
+      <c r="H87" s="186"/>
+      <c r="I87" s="186"/>
+      <c r="J87" s="186"/>
+      <c r="K87" s="186"/>
+      <c r="L87" s="186"/>
+      <c r="M87" s="207"/>
+      <c r="N87" s="207"/>
+      <c r="O87" s="207"/>
+      <c r="P87" s="207"/>
+      <c r="Q87" s="207"/>
+      <c r="R87" s="207"/>
+      <c r="S87" s="207"/>
+      <c r="T87" s="207"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" s="219"/>
+      <c r="B88" s="187" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="207"/>
-      <c r="D88" s="207"/>
-      <c r="E88" s="207"/>
-      <c r="F88" s="207"/>
-      <c r="G88" s="207"/>
-      <c r="H88" s="207"/>
-      <c r="I88" s="207"/>
-      <c r="J88" s="207"/>
-      <c r="K88" s="207"/>
-      <c r="L88" s="207"/>
-      <c r="M88" s="205"/>
-      <c r="N88" s="205"/>
-      <c r="O88" s="205"/>
-      <c r="P88" s="205"/>
-      <c r="Q88" s="205"/>
-      <c r="R88" s="205"/>
-      <c r="S88" s="205"/>
-      <c r="T88" s="205"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="215"/>
-      <c r="B89" s="208" t="s">
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
+      <c r="G88" s="186"/>
+      <c r="H88" s="186"/>
+      <c r="I88" s="186"/>
+      <c r="J88" s="186"/>
+      <c r="K88" s="186"/>
+      <c r="L88" s="186"/>
+      <c r="M88" s="207"/>
+      <c r="N88" s="207"/>
+      <c r="O88" s="207"/>
+      <c r="P88" s="207"/>
+      <c r="Q88" s="207"/>
+      <c r="R88" s="207"/>
+      <c r="S88" s="207"/>
+      <c r="T88" s="207"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A89" s="219"/>
+      <c r="B89" s="187" t="s">
         <v>162</v>
       </c>
-      <c r="C89" s="207"/>
-      <c r="D89" s="207"/>
-      <c r="E89" s="207"/>
-      <c r="F89" s="207"/>
-      <c r="G89" s="207"/>
-      <c r="H89" s="207"/>
-      <c r="I89" s="207"/>
-      <c r="J89" s="207"/>
-      <c r="K89" s="207"/>
-      <c r="L89" s="207"/>
-      <c r="M89" s="205"/>
-      <c r="N89" s="205"/>
-      <c r="O89" s="205"/>
-      <c r="P89" s="205"/>
-      <c r="Q89" s="205"/>
-      <c r="R89" s="205"/>
-      <c r="S89" s="205"/>
-      <c r="T89" s="205"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="215"/>
-      <c r="B90" s="208" t="s">
+      <c r="C89" s="186"/>
+      <c r="D89" s="186"/>
+      <c r="E89" s="186"/>
+      <c r="F89" s="186"/>
+      <c r="G89" s="186"/>
+      <c r="H89" s="186"/>
+      <c r="I89" s="186"/>
+      <c r="J89" s="186"/>
+      <c r="K89" s="186"/>
+      <c r="L89" s="186"/>
+      <c r="M89" s="207"/>
+      <c r="N89" s="207"/>
+      <c r="O89" s="207"/>
+      <c r="P89" s="207"/>
+      <c r="Q89" s="207"/>
+      <c r="R89" s="207"/>
+      <c r="S89" s="207"/>
+      <c r="T89" s="207"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="219"/>
+      <c r="B90" s="187" t="s">
         <v>223</v>
       </c>
-      <c r="C90" s="207"/>
-      <c r="D90" s="207"/>
-      <c r="E90" s="207"/>
-      <c r="F90" s="207"/>
-      <c r="G90" s="207"/>
-      <c r="H90" s="207"/>
-      <c r="I90" s="207"/>
-      <c r="J90" s="207"/>
-      <c r="K90" s="207"/>
-      <c r="L90" s="207"/>
-      <c r="M90" s="205"/>
-      <c r="N90" s="205"/>
-      <c r="O90" s="205"/>
-      <c r="P90" s="205"/>
-      <c r="Q90" s="205"/>
-      <c r="R90" s="205"/>
-      <c r="S90" s="205"/>
-      <c r="T90" s="205"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="215"/>
-      <c r="B91" s="208" t="s">
+      <c r="C90" s="186"/>
+      <c r="D90" s="186"/>
+      <c r="E90" s="186"/>
+      <c r="F90" s="186"/>
+      <c r="G90" s="186"/>
+      <c r="H90" s="186"/>
+      <c r="I90" s="186"/>
+      <c r="J90" s="186"/>
+      <c r="K90" s="186"/>
+      <c r="L90" s="186"/>
+      <c r="M90" s="207"/>
+      <c r="N90" s="207"/>
+      <c r="O90" s="207"/>
+      <c r="P90" s="207"/>
+      <c r="Q90" s="207"/>
+      <c r="R90" s="207"/>
+      <c r="S90" s="207"/>
+      <c r="T90" s="207"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="219"/>
+      <c r="B91" s="187" t="s">
         <v>224</v>
       </c>
-      <c r="C91" s="207"/>
-      <c r="D91" s="207"/>
-      <c r="E91" s="207"/>
-      <c r="F91" s="207"/>
-      <c r="G91" s="207"/>
-      <c r="H91" s="207"/>
-      <c r="I91" s="207"/>
-      <c r="J91" s="207"/>
-      <c r="K91" s="207"/>
-      <c r="L91" s="207"/>
-      <c r="M91" s="205"/>
-      <c r="N91" s="205"/>
-      <c r="O91" s="205"/>
-      <c r="P91" s="205"/>
-      <c r="Q91" s="205"/>
-      <c r="R91" s="205"/>
-      <c r="S91" s="205"/>
-      <c r="T91" s="205"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="215"/>
-      <c r="B92" s="208" t="s">
+      <c r="C91" s="186"/>
+      <c r="D91" s="186"/>
+      <c r="E91" s="186"/>
+      <c r="F91" s="186"/>
+      <c r="G91" s="186"/>
+      <c r="H91" s="186"/>
+      <c r="I91" s="186"/>
+      <c r="J91" s="186"/>
+      <c r="K91" s="186"/>
+      <c r="L91" s="186"/>
+      <c r="M91" s="207"/>
+      <c r="N91" s="207"/>
+      <c r="O91" s="207"/>
+      <c r="P91" s="207"/>
+      <c r="Q91" s="207"/>
+      <c r="R91" s="207"/>
+      <c r="S91" s="207"/>
+      <c r="T91" s="207"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="219"/>
+      <c r="B92" s="187" t="s">
         <v>225</v>
       </c>
-      <c r="C92" s="207"/>
-      <c r="D92" s="207"/>
-      <c r="E92" s="207"/>
-      <c r="F92" s="207"/>
-      <c r="G92" s="207"/>
-      <c r="H92" s="207"/>
-      <c r="I92" s="207"/>
-      <c r="J92" s="207"/>
-      <c r="K92" s="207"/>
-      <c r="L92" s="207"/>
-      <c r="M92" s="205"/>
-      <c r="N92" s="205"/>
-      <c r="O92" s="205"/>
-      <c r="P92" s="205"/>
-      <c r="Q92" s="205"/>
-      <c r="R92" s="205"/>
-      <c r="S92" s="205"/>
-      <c r="T92" s="205"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="215"/>
-      <c r="B93" s="208" t="s">
+      <c r="C92" s="186"/>
+      <c r="D92" s="186"/>
+      <c r="E92" s="186"/>
+      <c r="F92" s="186"/>
+      <c r="G92" s="186"/>
+      <c r="H92" s="186"/>
+      <c r="I92" s="186"/>
+      <c r="J92" s="186"/>
+      <c r="K92" s="186"/>
+      <c r="L92" s="186"/>
+      <c r="M92" s="207"/>
+      <c r="N92" s="207"/>
+      <c r="O92" s="207"/>
+      <c r="P92" s="207"/>
+      <c r="Q92" s="207"/>
+      <c r="R92" s="207"/>
+      <c r="S92" s="207"/>
+      <c r="T92" s="207"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="219"/>
+      <c r="B93" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="C93" s="207"/>
-      <c r="D93" s="207"/>
-      <c r="E93" s="207"/>
-      <c r="F93" s="207"/>
-      <c r="G93" s="207"/>
-      <c r="H93" s="207"/>
-      <c r="I93" s="207"/>
-      <c r="J93" s="207"/>
-      <c r="K93" s="207"/>
-      <c r="L93" s="207"/>
-      <c r="M93" s="205"/>
-      <c r="N93" s="205"/>
-      <c r="O93" s="205"/>
-      <c r="P93" s="205"/>
-      <c r="Q93" s="205"/>
-      <c r="R93" s="205"/>
-      <c r="S93" s="205"/>
-      <c r="T93" s="205"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="195" t="s">
+      <c r="C93" s="186"/>
+      <c r="D93" s="186"/>
+      <c r="E93" s="186"/>
+      <c r="F93" s="186"/>
+      <c r="G93" s="186"/>
+      <c r="H93" s="186"/>
+      <c r="I93" s="186"/>
+      <c r="J93" s="186"/>
+      <c r="K93" s="186"/>
+      <c r="L93" s="186"/>
+      <c r="M93" s="207"/>
+      <c r="N93" s="207"/>
+      <c r="O93" s="207"/>
+      <c r="P93" s="207"/>
+      <c r="Q93" s="207"/>
+      <c r="R93" s="207"/>
+      <c r="S93" s="207"/>
+      <c r="T93" s="207"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="210" t="s">
         <v>171</v>
       </c>
       <c r="B95" s="183" t="s">
@@ -6551,19 +6549,19 @@
       <c r="J95" s="184"/>
       <c r="K95" s="184"/>
       <c r="L95" s="184"/>
-      <c r="M95" s="205" t="s">
-        <v>251</v>
-      </c>
-      <c r="N95" s="205"/>
-      <c r="O95" s="205"/>
-      <c r="P95" s="205"/>
-      <c r="Q95" s="205"/>
-      <c r="R95" s="205"/>
-      <c r="S95" s="205"/>
-      <c r="T95" s="205"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="195"/>
+      <c r="M95" s="207" t="s">
+        <v>250</v>
+      </c>
+      <c r="N95" s="207"/>
+      <c r="O95" s="207"/>
+      <c r="P95" s="207"/>
+      <c r="Q95" s="207"/>
+      <c r="R95" s="207"/>
+      <c r="S95" s="207"/>
+      <c r="T95" s="207"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" s="210"/>
       <c r="B96" s="183" t="s">
         <v>178</v>
       </c>
@@ -6577,17 +6575,17 @@
       <c r="J96" s="184"/>
       <c r="K96" s="184"/>
       <c r="L96" s="184"/>
-      <c r="M96" s="205"/>
-      <c r="N96" s="205"/>
-      <c r="O96" s="205"/>
-      <c r="P96" s="205"/>
-      <c r="Q96" s="205"/>
-      <c r="R96" s="205"/>
-      <c r="S96" s="205"/>
-      <c r="T96" s="205"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" s="195"/>
+      <c r="M96" s="207"/>
+      <c r="N96" s="207"/>
+      <c r="O96" s="207"/>
+      <c r="P96" s="207"/>
+      <c r="Q96" s="207"/>
+      <c r="R96" s="207"/>
+      <c r="S96" s="207"/>
+      <c r="T96" s="207"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A97" s="210"/>
       <c r="B97" s="183" t="s">
         <v>161</v>
       </c>
@@ -6601,17 +6599,17 @@
       <c r="J97" s="184"/>
       <c r="K97" s="184"/>
       <c r="L97" s="184"/>
-      <c r="M97" s="205"/>
-      <c r="N97" s="205"/>
-      <c r="O97" s="205"/>
-      <c r="P97" s="205"/>
-      <c r="Q97" s="205"/>
-      <c r="R97" s="205"/>
-      <c r="S97" s="205"/>
-      <c r="T97" s="205"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="195"/>
+      <c r="M97" s="207"/>
+      <c r="N97" s="207"/>
+      <c r="O97" s="207"/>
+      <c r="P97" s="207"/>
+      <c r="Q97" s="207"/>
+      <c r="R97" s="207"/>
+      <c r="S97" s="207"/>
+      <c r="T97" s="207"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A98" s="210"/>
       <c r="B98" s="183" t="s">
         <v>210</v>
       </c>
@@ -6625,17 +6623,17 @@
       <c r="J98" s="184"/>
       <c r="K98" s="184"/>
       <c r="L98" s="184"/>
-      <c r="M98" s="205"/>
-      <c r="N98" s="205"/>
-      <c r="O98" s="205"/>
-      <c r="P98" s="205"/>
-      <c r="Q98" s="205"/>
-      <c r="R98" s="205"/>
-      <c r="S98" s="205"/>
-      <c r="T98" s="205"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" s="195"/>
+      <c r="M98" s="207"/>
+      <c r="N98" s="207"/>
+      <c r="O98" s="207"/>
+      <c r="P98" s="207"/>
+      <c r="Q98" s="207"/>
+      <c r="R98" s="207"/>
+      <c r="S98" s="207"/>
+      <c r="T98" s="207"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" s="210"/>
       <c r="B99" s="183" t="s">
         <v>209</v>
       </c>
@@ -6649,17 +6647,17 @@
       <c r="J99" s="184"/>
       <c r="K99" s="184"/>
       <c r="L99" s="184"/>
-      <c r="M99" s="205"/>
-      <c r="N99" s="205"/>
-      <c r="O99" s="205"/>
-      <c r="P99" s="205"/>
-      <c r="Q99" s="205"/>
-      <c r="R99" s="205"/>
-      <c r="S99" s="205"/>
-      <c r="T99" s="205"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="195"/>
+      <c r="M99" s="207"/>
+      <c r="N99" s="207"/>
+      <c r="O99" s="207"/>
+      <c r="P99" s="207"/>
+      <c r="Q99" s="207"/>
+      <c r="R99" s="207"/>
+      <c r="S99" s="207"/>
+      <c r="T99" s="207"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" s="210"/>
       <c r="B100" s="183" t="s">
         <v>221</v>
       </c>
@@ -6673,17 +6671,17 @@
       <c r="J100" s="184"/>
       <c r="K100" s="184"/>
       <c r="L100" s="184"/>
-      <c r="M100" s="205"/>
-      <c r="N100" s="205"/>
-      <c r="O100" s="205"/>
-      <c r="P100" s="205"/>
-      <c r="Q100" s="205"/>
-      <c r="R100" s="205"/>
-      <c r="S100" s="205"/>
-      <c r="T100" s="205"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="195"/>
+      <c r="M100" s="207"/>
+      <c r="N100" s="207"/>
+      <c r="O100" s="207"/>
+      <c r="P100" s="207"/>
+      <c r="Q100" s="207"/>
+      <c r="R100" s="207"/>
+      <c r="S100" s="207"/>
+      <c r="T100" s="207"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A101" s="210"/>
       <c r="B101" s="183" t="s">
         <v>222</v>
       </c>
@@ -6697,17 +6695,17 @@
       <c r="J101" s="184"/>
       <c r="K101" s="184"/>
       <c r="L101" s="184"/>
-      <c r="M101" s="205"/>
-      <c r="N101" s="205"/>
-      <c r="O101" s="205"/>
-      <c r="P101" s="205"/>
-      <c r="Q101" s="205"/>
-      <c r="R101" s="205"/>
-      <c r="S101" s="205"/>
-      <c r="T101" s="205"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="195"/>
+      <c r="M101" s="207"/>
+      <c r="N101" s="207"/>
+      <c r="O101" s="207"/>
+      <c r="P101" s="207"/>
+      <c r="Q101" s="207"/>
+      <c r="R101" s="207"/>
+      <c r="S101" s="207"/>
+      <c r="T101" s="207"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A102" s="210"/>
       <c r="B102" s="183" t="s">
         <v>224</v>
       </c>
@@ -6721,213 +6719,213 @@
       <c r="J102" s="184"/>
       <c r="K102" s="184"/>
       <c r="L102" s="184"/>
-      <c r="M102" s="205"/>
-      <c r="N102" s="205"/>
-      <c r="O102" s="205"/>
-      <c r="P102" s="205"/>
-      <c r="Q102" s="205"/>
-      <c r="R102" s="205"/>
-      <c r="S102" s="205"/>
-      <c r="T102" s="205"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="218" t="s">
+      <c r="M102" s="207"/>
+      <c r="N102" s="207"/>
+      <c r="O102" s="207"/>
+      <c r="P102" s="207"/>
+      <c r="Q102" s="207"/>
+      <c r="R102" s="207"/>
+      <c r="S102" s="207"/>
+      <c r="T102" s="207"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A104" s="211" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="221" t="s">
+      <c r="B104" s="194" t="s">
         <v>228</v>
       </c>
-      <c r="C104" s="207"/>
-      <c r="D104" s="207"/>
-      <c r="E104" s="207"/>
-      <c r="F104" s="207"/>
-      <c r="G104" s="207"/>
-      <c r="H104" s="207"/>
-      <c r="I104" s="207"/>
-      <c r="J104" s="207"/>
-      <c r="K104" s="207"/>
-      <c r="L104" s="207"/>
-      <c r="M104" s="204" t="s">
-        <v>252</v>
-      </c>
-      <c r="N104" s="204"/>
-      <c r="O104" s="204"/>
-      <c r="P104" s="204"/>
-      <c r="Q104" s="204"/>
-      <c r="R104" s="204"/>
-      <c r="S104" s="204"/>
-      <c r="T104" s="204"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="219"/>
-      <c r="B105" s="221" t="s">
+      <c r="C104" s="186"/>
+      <c r="D104" s="186"/>
+      <c r="E104" s="186"/>
+      <c r="F104" s="186"/>
+      <c r="G104" s="186"/>
+      <c r="H104" s="186"/>
+      <c r="I104" s="186"/>
+      <c r="J104" s="186"/>
+      <c r="K104" s="186"/>
+      <c r="L104" s="186"/>
+      <c r="M104" s="206" t="s">
+        <v>251</v>
+      </c>
+      <c r="N104" s="206"/>
+      <c r="O104" s="206"/>
+      <c r="P104" s="206"/>
+      <c r="Q104" s="206"/>
+      <c r="R104" s="206"/>
+      <c r="S104" s="206"/>
+      <c r="T104" s="206"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A105" s="212"/>
+      <c r="B105" s="194" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="207"/>
-      <c r="D105" s="207"/>
-      <c r="E105" s="207"/>
-      <c r="F105" s="207"/>
-      <c r="G105" s="207"/>
-      <c r="H105" s="207"/>
-      <c r="I105" s="207"/>
-      <c r="J105" s="207"/>
-      <c r="K105" s="207"/>
-      <c r="L105" s="207"/>
-      <c r="M105" s="204"/>
-      <c r="N105" s="204"/>
-      <c r="O105" s="204"/>
-      <c r="P105" s="204"/>
-      <c r="Q105" s="204"/>
-      <c r="R105" s="204"/>
-      <c r="S105" s="204"/>
-      <c r="T105" s="204"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" s="219"/>
-      <c r="B106" s="221" t="s">
+      <c r="C105" s="186"/>
+      <c r="D105" s="186"/>
+      <c r="E105" s="186"/>
+      <c r="F105" s="186"/>
+      <c r="G105" s="186"/>
+      <c r="H105" s="186"/>
+      <c r="I105" s="186"/>
+      <c r="J105" s="186"/>
+      <c r="K105" s="186"/>
+      <c r="L105" s="186"/>
+      <c r="M105" s="206"/>
+      <c r="N105" s="206"/>
+      <c r="O105" s="206"/>
+      <c r="P105" s="206"/>
+      <c r="Q105" s="206"/>
+      <c r="R105" s="206"/>
+      <c r="S105" s="206"/>
+      <c r="T105" s="206"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A106" s="212"/>
+      <c r="B106" s="194" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="207"/>
-      <c r="D106" s="207"/>
-      <c r="E106" s="207"/>
-      <c r="F106" s="207"/>
-      <c r="G106" s="207"/>
-      <c r="H106" s="207"/>
-      <c r="I106" s="207"/>
-      <c r="J106" s="207"/>
-      <c r="K106" s="207"/>
-      <c r="L106" s="207"/>
-      <c r="M106" s="204"/>
-      <c r="N106" s="204"/>
-      <c r="O106" s="204"/>
-      <c r="P106" s="204"/>
-      <c r="Q106" s="204"/>
-      <c r="R106" s="204"/>
-      <c r="S106" s="204"/>
-      <c r="T106" s="204"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="219"/>
-      <c r="B107" s="221" t="s">
+      <c r="C106" s="186"/>
+      <c r="D106" s="186"/>
+      <c r="E106" s="186"/>
+      <c r="F106" s="186"/>
+      <c r="G106" s="186"/>
+      <c r="H106" s="186"/>
+      <c r="I106" s="186"/>
+      <c r="J106" s="186"/>
+      <c r="K106" s="186"/>
+      <c r="L106" s="186"/>
+      <c r="M106" s="206"/>
+      <c r="N106" s="206"/>
+      <c r="O106" s="206"/>
+      <c r="P106" s="206"/>
+      <c r="Q106" s="206"/>
+      <c r="R106" s="206"/>
+      <c r="S106" s="206"/>
+      <c r="T106" s="206"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A107" s="212"/>
+      <c r="B107" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="C107" s="207"/>
-      <c r="D107" s="207"/>
-      <c r="E107" s="207"/>
-      <c r="F107" s="207"/>
-      <c r="G107" s="207"/>
-      <c r="H107" s="207"/>
-      <c r="I107" s="207"/>
-      <c r="J107" s="207"/>
-      <c r="K107" s="207"/>
-      <c r="L107" s="207"/>
-      <c r="M107" s="204"/>
-      <c r="N107" s="204"/>
-      <c r="O107" s="204"/>
-      <c r="P107" s="204"/>
-      <c r="Q107" s="204"/>
-      <c r="R107" s="204"/>
-      <c r="S107" s="204"/>
-      <c r="T107" s="204"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" s="219"/>
-      <c r="B108" s="221" t="s">
+      <c r="C107" s="186"/>
+      <c r="D107" s="186"/>
+      <c r="E107" s="186"/>
+      <c r="F107" s="186"/>
+      <c r="G107" s="186"/>
+      <c r="H107" s="186"/>
+      <c r="I107" s="186"/>
+      <c r="J107" s="186"/>
+      <c r="K107" s="186"/>
+      <c r="L107" s="186"/>
+      <c r="M107" s="206"/>
+      <c r="N107" s="206"/>
+      <c r="O107" s="206"/>
+      <c r="P107" s="206"/>
+      <c r="Q107" s="206"/>
+      <c r="R107" s="206"/>
+      <c r="S107" s="206"/>
+      <c r="T107" s="206"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A108" s="212"/>
+      <c r="B108" s="194" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="207"/>
-      <c r="D108" s="207"/>
-      <c r="E108" s="207"/>
-      <c r="F108" s="207"/>
-      <c r="G108" s="207"/>
-      <c r="H108" s="207"/>
-      <c r="I108" s="207"/>
-      <c r="J108" s="207"/>
-      <c r="K108" s="207"/>
-      <c r="L108" s="207"/>
-      <c r="M108" s="204"/>
-      <c r="N108" s="204"/>
-      <c r="O108" s="204"/>
-      <c r="P108" s="204"/>
-      <c r="Q108" s="204"/>
-      <c r="R108" s="204"/>
-      <c r="S108" s="204"/>
-      <c r="T108" s="204"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="219"/>
-      <c r="B109" s="221" t="s">
+      <c r="C108" s="186"/>
+      <c r="D108" s="186"/>
+      <c r="E108" s="186"/>
+      <c r="F108" s="186"/>
+      <c r="G108" s="186"/>
+      <c r="H108" s="186"/>
+      <c r="I108" s="186"/>
+      <c r="J108" s="186"/>
+      <c r="K108" s="186"/>
+      <c r="L108" s="186"/>
+      <c r="M108" s="206"/>
+      <c r="N108" s="206"/>
+      <c r="O108" s="206"/>
+      <c r="P108" s="206"/>
+      <c r="Q108" s="206"/>
+      <c r="R108" s="206"/>
+      <c r="S108" s="206"/>
+      <c r="T108" s="206"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A109" s="212"/>
+      <c r="B109" s="194" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="207"/>
-      <c r="D109" s="207"/>
-      <c r="E109" s="207"/>
-      <c r="F109" s="207"/>
-      <c r="G109" s="207"/>
-      <c r="H109" s="207"/>
-      <c r="I109" s="207"/>
-      <c r="J109" s="207"/>
-      <c r="K109" s="207"/>
-      <c r="L109" s="207"/>
-      <c r="M109" s="204"/>
-      <c r="N109" s="204"/>
-      <c r="O109" s="204"/>
-      <c r="P109" s="204"/>
-      <c r="Q109" s="204"/>
-      <c r="R109" s="204"/>
-      <c r="S109" s="204"/>
-      <c r="T109" s="204"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110" s="219"/>
-      <c r="B110" s="208" t="s">
+      <c r="C109" s="186"/>
+      <c r="D109" s="186"/>
+      <c r="E109" s="186"/>
+      <c r="F109" s="186"/>
+      <c r="G109" s="186"/>
+      <c r="H109" s="186"/>
+      <c r="I109" s="186"/>
+      <c r="J109" s="186"/>
+      <c r="K109" s="186"/>
+      <c r="L109" s="186"/>
+      <c r="M109" s="206"/>
+      <c r="N109" s="206"/>
+      <c r="O109" s="206"/>
+      <c r="P109" s="206"/>
+      <c r="Q109" s="206"/>
+      <c r="R109" s="206"/>
+      <c r="S109" s="206"/>
+      <c r="T109" s="206"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A110" s="212"/>
+      <c r="B110" s="187" t="s">
         <v>223</v>
       </c>
-      <c r="C110" s="207"/>
-      <c r="D110" s="207"/>
-      <c r="E110" s="207"/>
-      <c r="F110" s="207"/>
-      <c r="G110" s="207"/>
-      <c r="H110" s="207"/>
-      <c r="I110" s="207"/>
-      <c r="J110" s="207"/>
-      <c r="K110" s="207"/>
-      <c r="L110" s="207"/>
-      <c r="M110" s="204"/>
-      <c r="N110" s="204"/>
-      <c r="O110" s="204"/>
-      <c r="P110" s="204"/>
-      <c r="Q110" s="204"/>
-      <c r="R110" s="204"/>
-      <c r="S110" s="204"/>
-      <c r="T110" s="204"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" s="220"/>
-      <c r="B111" s="208" t="s">
+      <c r="C110" s="186"/>
+      <c r="D110" s="186"/>
+      <c r="E110" s="186"/>
+      <c r="F110" s="186"/>
+      <c r="G110" s="186"/>
+      <c r="H110" s="186"/>
+      <c r="I110" s="186"/>
+      <c r="J110" s="186"/>
+      <c r="K110" s="186"/>
+      <c r="L110" s="186"/>
+      <c r="M110" s="206"/>
+      <c r="N110" s="206"/>
+      <c r="O110" s="206"/>
+      <c r="P110" s="206"/>
+      <c r="Q110" s="206"/>
+      <c r="R110" s="206"/>
+      <c r="S110" s="206"/>
+      <c r="T110" s="206"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A111" s="213"/>
+      <c r="B111" s="187" t="s">
         <v>224</v>
       </c>
-      <c r="C111" s="207"/>
-      <c r="D111" s="207"/>
-      <c r="E111" s="207"/>
-      <c r="F111" s="207"/>
-      <c r="G111" s="207"/>
-      <c r="H111" s="207"/>
-      <c r="I111" s="207"/>
-      <c r="J111" s="207"/>
-      <c r="K111" s="207"/>
-      <c r="L111" s="207"/>
-      <c r="M111" s="204"/>
-      <c r="N111" s="204"/>
-      <c r="O111" s="204"/>
-      <c r="P111" s="204"/>
-      <c r="Q111" s="204"/>
-      <c r="R111" s="204"/>
-      <c r="S111" s="204"/>
-      <c r="T111" s="204"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="195" t="s">
+      <c r="C111" s="186"/>
+      <c r="D111" s="186"/>
+      <c r="E111" s="186"/>
+      <c r="F111" s="186"/>
+      <c r="G111" s="186"/>
+      <c r="H111" s="186"/>
+      <c r="I111" s="186"/>
+      <c r="J111" s="186"/>
+      <c r="K111" s="186"/>
+      <c r="L111" s="186"/>
+      <c r="M111" s="206"/>
+      <c r="N111" s="206"/>
+      <c r="O111" s="206"/>
+      <c r="P111" s="206"/>
+      <c r="Q111" s="206"/>
+      <c r="R111" s="206"/>
+      <c r="S111" s="206"/>
+      <c r="T111" s="206"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A113" s="210" t="s">
         <v>172</v>
       </c>
       <c r="B113" s="183" t="s">
@@ -6943,19 +6941,19 @@
       <c r="J113" s="184"/>
       <c r="K113" s="184"/>
       <c r="L113" s="184"/>
-      <c r="M113" s="204" t="s">
-        <v>253</v>
-      </c>
-      <c r="N113" s="204"/>
-      <c r="O113" s="204"/>
-      <c r="P113" s="204"/>
-      <c r="Q113" s="204"/>
-      <c r="R113" s="204"/>
-      <c r="S113" s="204"/>
-      <c r="T113" s="204"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="195"/>
+      <c r="M113" s="206" t="s">
+        <v>252</v>
+      </c>
+      <c r="N113" s="206"/>
+      <c r="O113" s="206"/>
+      <c r="P113" s="206"/>
+      <c r="Q113" s="206"/>
+      <c r="R113" s="206"/>
+      <c r="S113" s="206"/>
+      <c r="T113" s="206"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A114" s="210"/>
       <c r="B114" s="183" t="s">
         <v>212</v>
       </c>
@@ -6969,17 +6967,17 @@
       <c r="J114" s="184"/>
       <c r="K114" s="184"/>
       <c r="L114" s="184"/>
-      <c r="M114" s="204"/>
-      <c r="N114" s="204"/>
-      <c r="O114" s="204"/>
-      <c r="P114" s="204"/>
-      <c r="Q114" s="204"/>
-      <c r="R114" s="204"/>
-      <c r="S114" s="204"/>
-      <c r="T114" s="204"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="195"/>
+      <c r="M114" s="206"/>
+      <c r="N114" s="206"/>
+      <c r="O114" s="206"/>
+      <c r="P114" s="206"/>
+      <c r="Q114" s="206"/>
+      <c r="R114" s="206"/>
+      <c r="S114" s="206"/>
+      <c r="T114" s="206"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A115" s="210"/>
       <c r="B115" s="183" t="s">
         <v>222</v>
       </c>
@@ -6993,17 +6991,17 @@
       <c r="J115" s="184"/>
       <c r="K115" s="184"/>
       <c r="L115" s="184"/>
-      <c r="M115" s="204"/>
-      <c r="N115" s="204"/>
-      <c r="O115" s="204"/>
-      <c r="P115" s="204"/>
-      <c r="Q115" s="204"/>
-      <c r="R115" s="204"/>
-      <c r="S115" s="204"/>
-      <c r="T115" s="204"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="195"/>
+      <c r="M115" s="206"/>
+      <c r="N115" s="206"/>
+      <c r="O115" s="206"/>
+      <c r="P115" s="206"/>
+      <c r="Q115" s="206"/>
+      <c r="R115" s="206"/>
+      <c r="S115" s="206"/>
+      <c r="T115" s="206"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A116" s="210"/>
       <c r="B116" s="183" t="s">
         <v>224</v>
       </c>
@@ -7017,17 +7015,17 @@
       <c r="J116" s="184"/>
       <c r="K116" s="184"/>
       <c r="L116" s="184"/>
-      <c r="M116" s="204"/>
-      <c r="N116" s="204"/>
-      <c r="O116" s="204"/>
-      <c r="P116" s="204"/>
-      <c r="Q116" s="204"/>
-      <c r="R116" s="204"/>
-      <c r="S116" s="204"/>
-      <c r="T116" s="204"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="195"/>
+      <c r="M116" s="206"/>
+      <c r="N116" s="206"/>
+      <c r="O116" s="206"/>
+      <c r="P116" s="206"/>
+      <c r="Q116" s="206"/>
+      <c r="R116" s="206"/>
+      <c r="S116" s="206"/>
+      <c r="T116" s="206"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A117" s="210"/>
       <c r="B117" s="183" t="s">
         <v>223</v>
       </c>
@@ -7041,17 +7039,17 @@
       <c r="J117" s="184"/>
       <c r="K117" s="184"/>
       <c r="L117" s="184"/>
-      <c r="M117" s="204"/>
-      <c r="N117" s="204"/>
-      <c r="O117" s="204"/>
-      <c r="P117" s="204"/>
-      <c r="Q117" s="204"/>
-      <c r="R117" s="204"/>
-      <c r="S117" s="204"/>
-      <c r="T117" s="204"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="195"/>
+      <c r="M117" s="206"/>
+      <c r="N117" s="206"/>
+      <c r="O117" s="206"/>
+      <c r="P117" s="206"/>
+      <c r="Q117" s="206"/>
+      <c r="R117" s="206"/>
+      <c r="S117" s="206"/>
+      <c r="T117" s="206"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A118" s="210"/>
       <c r="B118" s="183" t="s">
         <v>162</v>
       </c>
@@ -7065,189 +7063,202 @@
       <c r="J118" s="184"/>
       <c r="K118" s="184"/>
       <c r="L118" s="184"/>
-      <c r="M118" s="204"/>
-      <c r="N118" s="204"/>
-      <c r="O118" s="204"/>
-      <c r="P118" s="204"/>
-      <c r="Q118" s="204"/>
-      <c r="R118" s="204"/>
-      <c r="S118" s="204"/>
-      <c r="T118" s="204"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="215" t="s">
+      <c r="M118" s="206"/>
+      <c r="N118" s="206"/>
+      <c r="O118" s="206"/>
+      <c r="P118" s="206"/>
+      <c r="Q118" s="206"/>
+      <c r="R118" s="206"/>
+      <c r="S118" s="206"/>
+      <c r="T118" s="206"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A120" s="219" t="s">
         <v>175</v>
       </c>
-      <c r="B120" s="208" t="s">
+      <c r="B120" s="187" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="207"/>
-      <c r="D120" s="207"/>
-      <c r="E120" s="207"/>
-      <c r="F120" s="207"/>
-      <c r="G120" s="207"/>
-      <c r="H120" s="207"/>
-      <c r="I120" s="207"/>
-      <c r="J120" s="207"/>
-      <c r="K120" s="207"/>
-      <c r="L120" s="207"/>
-      <c r="M120" s="204" t="s">
-        <v>254</v>
-      </c>
-      <c r="N120" s="204"/>
-      <c r="O120" s="204"/>
-      <c r="P120" s="204"/>
-      <c r="Q120" s="204"/>
-      <c r="R120" s="204"/>
-      <c r="S120" s="204"/>
-      <c r="T120" s="204"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="215"/>
-      <c r="B121" s="208" t="s">
+      <c r="C120" s="186"/>
+      <c r="D120" s="186"/>
+      <c r="E120" s="186"/>
+      <c r="F120" s="186"/>
+      <c r="G120" s="186"/>
+      <c r="H120" s="186"/>
+      <c r="I120" s="186"/>
+      <c r="J120" s="186"/>
+      <c r="K120" s="186"/>
+      <c r="L120" s="186"/>
+      <c r="M120" s="206" t="s">
+        <v>253</v>
+      </c>
+      <c r="N120" s="206"/>
+      <c r="O120" s="206"/>
+      <c r="P120" s="206"/>
+      <c r="Q120" s="206"/>
+      <c r="R120" s="206"/>
+      <c r="S120" s="206"/>
+      <c r="T120" s="206"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A121" s="219"/>
+      <c r="B121" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="C121" s="207"/>
-      <c r="D121" s="207"/>
-      <c r="E121" s="207"/>
-      <c r="F121" s="207"/>
-      <c r="G121" s="207"/>
-      <c r="H121" s="207"/>
-      <c r="I121" s="207"/>
-      <c r="J121" s="207"/>
-      <c r="K121" s="207"/>
-      <c r="L121" s="207"/>
-      <c r="M121" s="204"/>
-      <c r="N121" s="204"/>
-      <c r="O121" s="204"/>
-      <c r="P121" s="204"/>
-      <c r="Q121" s="204"/>
-      <c r="R121" s="204"/>
-      <c r="S121" s="204"/>
-      <c r="T121" s="204"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="215"/>
-      <c r="B122" s="208" t="s">
+      <c r="C121" s="186"/>
+      <c r="D121" s="186"/>
+      <c r="E121" s="186"/>
+      <c r="F121" s="186"/>
+      <c r="G121" s="186"/>
+      <c r="H121" s="186"/>
+      <c r="I121" s="186"/>
+      <c r="J121" s="186"/>
+      <c r="K121" s="186"/>
+      <c r="L121" s="186"/>
+      <c r="M121" s="206"/>
+      <c r="N121" s="206"/>
+      <c r="O121" s="206"/>
+      <c r="P121" s="206"/>
+      <c r="Q121" s="206"/>
+      <c r="R121" s="206"/>
+      <c r="S121" s="206"/>
+      <c r="T121" s="206"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A122" s="219"/>
+      <c r="B122" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C122" s="207"/>
-      <c r="D122" s="207"/>
-      <c r="E122" s="207"/>
-      <c r="F122" s="207"/>
-      <c r="G122" s="207"/>
-      <c r="H122" s="207"/>
-      <c r="I122" s="207"/>
-      <c r="J122" s="207"/>
-      <c r="K122" s="207"/>
-      <c r="L122" s="207"/>
-      <c r="M122" s="204"/>
-      <c r="N122" s="204"/>
-      <c r="O122" s="204"/>
-      <c r="P122" s="204"/>
-      <c r="Q122" s="204"/>
-      <c r="R122" s="204"/>
-      <c r="S122" s="204"/>
-      <c r="T122" s="204"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="215"/>
-      <c r="B123" s="208" t="s">
+      <c r="C122" s="186"/>
+      <c r="D122" s="186"/>
+      <c r="E122" s="186"/>
+      <c r="F122" s="186"/>
+      <c r="G122" s="186"/>
+      <c r="H122" s="186"/>
+      <c r="I122" s="186"/>
+      <c r="J122" s="186"/>
+      <c r="K122" s="186"/>
+      <c r="L122" s="186"/>
+      <c r="M122" s="206"/>
+      <c r="N122" s="206"/>
+      <c r="O122" s="206"/>
+      <c r="P122" s="206"/>
+      <c r="Q122" s="206"/>
+      <c r="R122" s="206"/>
+      <c r="S122" s="206"/>
+      <c r="T122" s="206"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A123" s="219"/>
+      <c r="B123" s="187" t="s">
         <v>221</v>
       </c>
-      <c r="C123" s="207"/>
-      <c r="D123" s="207"/>
-      <c r="E123" s="207"/>
-      <c r="F123" s="207"/>
-      <c r="G123" s="207"/>
-      <c r="H123" s="207"/>
-      <c r="I123" s="207"/>
-      <c r="J123" s="207"/>
-      <c r="K123" s="207"/>
-      <c r="L123" s="207"/>
-      <c r="M123" s="204"/>
-      <c r="N123" s="204"/>
-      <c r="O123" s="204"/>
-      <c r="P123" s="204"/>
-      <c r="Q123" s="204"/>
-      <c r="R123" s="204"/>
-      <c r="S123" s="204"/>
-      <c r="T123" s="204"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="215"/>
-      <c r="B124" s="208" t="s">
+      <c r="C123" s="186"/>
+      <c r="D123" s="186"/>
+      <c r="E123" s="186"/>
+      <c r="F123" s="186"/>
+      <c r="G123" s="186"/>
+      <c r="H123" s="186"/>
+      <c r="I123" s="186"/>
+      <c r="J123" s="186"/>
+      <c r="K123" s="186"/>
+      <c r="L123" s="186"/>
+      <c r="M123" s="206"/>
+      <c r="N123" s="206"/>
+      <c r="O123" s="206"/>
+      <c r="P123" s="206"/>
+      <c r="Q123" s="206"/>
+      <c r="R123" s="206"/>
+      <c r="S123" s="206"/>
+      <c r="T123" s="206"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A124" s="219"/>
+      <c r="B124" s="187" t="s">
         <v>222</v>
       </c>
-      <c r="C124" s="207"/>
-      <c r="D124" s="207"/>
-      <c r="E124" s="207"/>
-      <c r="F124" s="207"/>
-      <c r="G124" s="207"/>
-      <c r="H124" s="207"/>
-      <c r="I124" s="207"/>
-      <c r="J124" s="207"/>
-      <c r="K124" s="207"/>
-      <c r="L124" s="207"/>
-      <c r="M124" s="204"/>
-      <c r="N124" s="204"/>
-      <c r="O124" s="204"/>
-      <c r="P124" s="204"/>
-      <c r="Q124" s="204"/>
-      <c r="R124" s="204"/>
-      <c r="S124" s="204"/>
-      <c r="T124" s="204"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="215"/>
-      <c r="B125" s="208" t="s">
+      <c r="C124" s="186"/>
+      <c r="D124" s="186"/>
+      <c r="E124" s="186"/>
+      <c r="F124" s="186"/>
+      <c r="G124" s="186"/>
+      <c r="H124" s="186"/>
+      <c r="I124" s="186"/>
+      <c r="J124" s="186"/>
+      <c r="K124" s="186"/>
+      <c r="L124" s="186"/>
+      <c r="M124" s="206"/>
+      <c r="N124" s="206"/>
+      <c r="O124" s="206"/>
+      <c r="P124" s="206"/>
+      <c r="Q124" s="206"/>
+      <c r="R124" s="206"/>
+      <c r="S124" s="206"/>
+      <c r="T124" s="206"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A125" s="219"/>
+      <c r="B125" s="187" t="s">
         <v>223</v>
       </c>
-      <c r="C125" s="207"/>
-      <c r="D125" s="207"/>
-      <c r="E125" s="207"/>
-      <c r="F125" s="207"/>
-      <c r="G125" s="207"/>
-      <c r="H125" s="207"/>
-      <c r="I125" s="207"/>
-      <c r="J125" s="207"/>
-      <c r="K125" s="207"/>
-      <c r="L125" s="207"/>
-      <c r="M125" s="204"/>
-      <c r="N125" s="204"/>
-      <c r="O125" s="204"/>
-      <c r="P125" s="204"/>
-      <c r="Q125" s="204"/>
-      <c r="R125" s="204"/>
-      <c r="S125" s="204"/>
-      <c r="T125" s="204"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="215"/>
-      <c r="B126" s="208" t="s">
+      <c r="C125" s="186"/>
+      <c r="D125" s="186"/>
+      <c r="E125" s="186"/>
+      <c r="F125" s="186"/>
+      <c r="G125" s="186"/>
+      <c r="H125" s="186"/>
+      <c r="I125" s="186"/>
+      <c r="J125" s="186"/>
+      <c r="K125" s="186"/>
+      <c r="L125" s="186"/>
+      <c r="M125" s="206"/>
+      <c r="N125" s="206"/>
+      <c r="O125" s="206"/>
+      <c r="P125" s="206"/>
+      <c r="Q125" s="206"/>
+      <c r="R125" s="206"/>
+      <c r="S125" s="206"/>
+      <c r="T125" s="206"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A126" s="219"/>
+      <c r="B126" s="187" t="s">
         <v>231</v>
       </c>
-      <c r="C126" s="207"/>
-      <c r="D126" s="207"/>
-      <c r="E126" s="207"/>
-      <c r="F126" s="207"/>
-      <c r="G126" s="207"/>
-      <c r="H126" s="207"/>
-      <c r="I126" s="207"/>
-      <c r="J126" s="207"/>
-      <c r="K126" s="207"/>
-      <c r="L126" s="207"/>
-      <c r="M126" s="204"/>
-      <c r="N126" s="204"/>
-      <c r="O126" s="204"/>
-      <c r="P126" s="204"/>
-      <c r="Q126" s="204"/>
-      <c r="R126" s="204"/>
-      <c r="S126" s="204"/>
-      <c r="T126" s="204"/>
+      <c r="C126" s="186"/>
+      <c r="D126" s="186"/>
+      <c r="E126" s="186"/>
+      <c r="F126" s="186"/>
+      <c r="G126" s="186"/>
+      <c r="H126" s="186"/>
+      <c r="I126" s="186"/>
+      <c r="J126" s="186"/>
+      <c r="K126" s="186"/>
+      <c r="L126" s="186"/>
+      <c r="M126" s="206"/>
+      <c r="N126" s="206"/>
+      <c r="O126" s="206"/>
+      <c r="P126" s="206"/>
+      <c r="Q126" s="206"/>
+      <c r="R126" s="206"/>
+      <c r="S126" s="206"/>
+      <c r="T126" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A104:A111"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A69:A81"/>
+    <mergeCell ref="A83:A93"/>
+    <mergeCell ref="A95:A102"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="A16:A36"/>
+    <mergeCell ref="M16:T36"/>
+    <mergeCell ref="M38:T49"/>
+    <mergeCell ref="M51:T56"/>
     <mergeCell ref="M113:T118"/>
     <mergeCell ref="M120:T126"/>
     <mergeCell ref="M58:T67"/>
@@ -7255,19 +7266,6 @@
     <mergeCell ref="M83:T93"/>
     <mergeCell ref="M95:T102"/>
     <mergeCell ref="M104:T111"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="A16:A36"/>
-    <mergeCell ref="M16:T36"/>
-    <mergeCell ref="M38:T49"/>
-    <mergeCell ref="M51:T56"/>
-    <mergeCell ref="A58:A67"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A69:A81"/>
-    <mergeCell ref="A83:A93"/>
-    <mergeCell ref="A95:A102"/>
-    <mergeCell ref="A104:A111"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="A120:A126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7275,46 +7273,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BP142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="Z96" sqref="Z96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="22" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="19" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="22" customWidth="1"/>
     <col min="10" max="10" width="11" style="23" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="7" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="7" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="7" customWidth="1"/>
-    <col min="15" max="23" width="3.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="7" customWidth="1"/>
+    <col min="15" max="23" width="3.44140625" style="7" customWidth="1"/>
     <col min="24" max="68" width="4" style="7" customWidth="1"/>
     <col min="69" max="16384" width="10" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="200" t="s">
+    <row r="1" spans="1:68" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="223" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -7324,7 +7322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -7345,7 +7343,7 @@
       <c r="N2" s="10"/>
       <c r="BJ2" s="11"/>
     </row>
-    <row r="3" spans="1:68" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -7366,7 +7364,7 @@
       <c r="N3" s="10"/>
       <c r="BJ3" s="11"/>
     </row>
-    <row r="4" spans="1:68" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -7380,12 +7378,12 @@
       <c r="F4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="201">
+      <c r="G4" s="224">
         <v>44320</v>
       </c>
-      <c r="H4" s="201"/>
-    </row>
-    <row r="5" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="224"/>
+    </row>
+    <row r="5" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -7402,7 +7400,7 @@
       </c>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:68" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -7417,7 +7415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -7655,7 +7653,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -7669,10 +7667,10 @@
       <c r="G8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="202" t="s">
+      <c r="H8" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="202"/>
+      <c r="I8" s="225"/>
       <c r="N8" s="40" t="str">
         <f>DAY(N7)&amp;CHAR(10)&amp;LEFT(TEXT(N7,"mmm"),3)&amp;CHAR(10)&amp;"'"&amp;RIGHT(YEAR(N7),2)</f>
         <v>4
@@ -8004,7 +8002,7 @@
 '21</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="22" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" s="22" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>47</v>
       </c>
@@ -8261,7 +8259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="50"/>
@@ -8333,7 +8331,7 @@
       <c r="BN10" s="58"/>
       <c r="BO10" s="58"/>
     </row>
-    <row r="11" spans="1:68" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>59</v>
       </c>
@@ -8419,7 +8417,7 @@
       <c r="BN11" s="58"/>
       <c r="BO11" s="58"/>
     </row>
-    <row r="12" spans="1:68" s="80" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" s="80" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="70"/>
       <c r="B12" s="71" t="s">
         <v>61</v>
@@ -8495,13 +8493,13 @@
       <c r="BN12" s="79"/>
       <c r="BO12" s="79"/>
     </row>
-    <row r="13" spans="1:68" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="81"/>
       <c r="B13" s="82" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D13" s="83" t="s">
         <v>113</v>
@@ -8585,13 +8583,13 @@
       <c r="BN13" s="58"/>
       <c r="BO13" s="58"/>
     </row>
-    <row r="14" spans="1:68" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="89"/>
       <c r="B14" s="82" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D14" s="83" t="s">
         <v>113</v>
@@ -8675,7 +8673,7 @@
       <c r="BN14" s="58"/>
       <c r="BO14" s="58"/>
     </row>
-    <row r="15" spans="1:68" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="60" t="s">
         <v>63</v>
       </c>
@@ -8758,7 +8756,7 @@
       <c r="BN15" s="58"/>
       <c r="BO15" s="58"/>
     </row>
-    <row r="16" spans="1:68" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="89"/>
       <c r="B16" s="101" t="s">
         <v>65</v>
@@ -8834,7 +8832,7 @@
       <c r="BN16" s="58"/>
       <c r="BO16" s="58"/>
     </row>
-    <row r="17" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="89"/>
       <c r="B17" s="101" t="s">
         <v>66</v>
@@ -8907,7 +8905,7 @@
       <c r="BN17" s="58"/>
       <c r="BO17" s="58"/>
     </row>
-    <row r="18" spans="1:67" s="59" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" s="59" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="89"/>
       <c r="B18" s="101" t="s">
         <v>67</v>
@@ -8982,7 +8980,7 @@
       <c r="BN18" s="58"/>
       <c r="BO18" s="58"/>
     </row>
-    <row r="19" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="81">
         <v>1</v>
       </c>
@@ -9055,7 +9053,7 @@
       <c r="BN19" s="98"/>
       <c r="BO19" s="98"/>
     </row>
-    <row r="20" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="81"/>
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
@@ -9124,7 +9122,7 @@
       <c r="BN20" s="98"/>
       <c r="BO20" s="98"/>
     </row>
-    <row r="21" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="81"/>
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
@@ -9193,7 +9191,7 @@
       <c r="BN21" s="98"/>
       <c r="BO21" s="98"/>
     </row>
-    <row r="22" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81"/>
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
@@ -9262,7 +9260,7 @@
       <c r="BN22" s="98"/>
       <c r="BO22" s="98"/>
     </row>
-    <row r="23" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="81"/>
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
@@ -9331,7 +9329,7 @@
       <c r="BN23" s="98"/>
       <c r="BO23" s="98"/>
     </row>
-    <row r="24" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="81"/>
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
@@ -9400,7 +9398,7 @@
       <c r="BN24" s="98"/>
       <c r="BO24" s="98"/>
     </row>
-    <row r="25" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="81">
         <v>2</v>
       </c>
@@ -9473,7 +9471,7 @@
       <c r="BN25" s="98"/>
       <c r="BO25" s="98"/>
     </row>
-    <row r="26" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="81"/>
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
@@ -9542,7 +9540,7 @@
       <c r="BN26" s="98"/>
       <c r="BO26" s="98"/>
     </row>
-    <row r="27" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="81"/>
       <c r="B27" s="93"/>
       <c r="C27" s="94"/>
@@ -9611,7 +9609,7 @@
       <c r="BN27" s="98"/>
       <c r="BO27" s="98"/>
     </row>
-    <row r="28" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="81"/>
       <c r="B28" s="93"/>
       <c r="C28" s="94"/>
@@ -9680,7 +9678,7 @@
       <c r="BN28" s="98"/>
       <c r="BO28" s="98"/>
     </row>
-    <row r="29" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="81"/>
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
@@ -9749,7 +9747,7 @@
       <c r="BN29" s="98"/>
       <c r="BO29" s="98"/>
     </row>
-    <row r="30" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="81"/>
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
@@ -9818,7 +9816,7 @@
       <c r="BN30" s="98"/>
       <c r="BO30" s="98"/>
     </row>
-    <row r="31" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="81"/>
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
@@ -9887,7 +9885,7 @@
       <c r="BN31" s="98"/>
       <c r="BO31" s="98"/>
     </row>
-    <row r="32" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="114" t="s">
         <v>70</v>
       </c>
@@ -9958,7 +9956,7 @@
       <c r="BN32" s="98"/>
       <c r="BO32" s="98"/>
     </row>
-    <row r="33" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="60" t="s">
         <v>71</v>
       </c>
@@ -10040,7 +10038,7 @@
       <c r="BN33" s="58"/>
       <c r="BO33" s="58"/>
     </row>
-    <row r="34" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="121">
         <v>1</v>
       </c>
@@ -10116,13 +10114,13 @@
       <c r="BN34" s="58"/>
       <c r="BO34" s="58"/>
     </row>
-    <row r="35" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="81"/>
       <c r="B35" s="93" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D35" s="94" t="s">
         <v>113</v>
@@ -10196,13 +10194,13 @@
       <c r="BN35" s="98"/>
       <c r="BO35" s="98"/>
     </row>
-    <row r="36" spans="1:67" s="100" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" s="100" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="81"/>
       <c r="B36" s="93" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D36" s="94" t="s">
         <v>113</v>
@@ -10276,13 +10274,13 @@
       <c r="BN36" s="98"/>
       <c r="BO36" s="98"/>
     </row>
-    <row r="37" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="81"/>
       <c r="B37" s="93" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D37" s="94" t="s">
         <v>113</v>
@@ -10353,13 +10351,13 @@
       <c r="BN37" s="98"/>
       <c r="BO37" s="98"/>
     </row>
-    <row r="38" spans="1:67" s="100" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" s="100" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="81"/>
       <c r="B38" s="93" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D38" s="94" t="s">
         <v>113</v>
@@ -10433,7 +10431,7 @@
       <c r="BN38" s="98"/>
       <c r="BO38" s="98"/>
     </row>
-    <row r="39" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="103"/>
       <c r="B39" s="104"/>
       <c r="C39" s="128"/>
@@ -10502,7 +10500,7 @@
       <c r="BN39" s="112"/>
       <c r="BO39" s="112"/>
     </row>
-    <row r="40" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="103"/>
       <c r="B40" s="104"/>
       <c r="C40" s="128"/>
@@ -10571,7 +10569,7 @@
       <c r="BN40" s="112"/>
       <c r="BO40" s="112"/>
     </row>
-    <row r="41" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="103"/>
       <c r="B41" s="104"/>
       <c r="C41" s="128"/>
@@ -10640,7 +10638,7 @@
       <c r="BN41" s="112"/>
       <c r="BO41" s="112"/>
     </row>
-    <row r="42" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
       <c r="C42" s="128"/>
@@ -10709,7 +10707,7 @@
       <c r="BN42" s="112"/>
       <c r="BO42" s="112"/>
     </row>
-    <row r="43" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="103"/>
       <c r="B43" s="104"/>
       <c r="C43" s="128"/>
@@ -10778,7 +10776,7 @@
       <c r="BN43" s="112"/>
       <c r="BO43" s="112"/>
     </row>
-    <row r="44" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="103"/>
       <c r="B44" s="104"/>
       <c r="C44" s="128"/>
@@ -10847,7 +10845,7 @@
       <c r="BN44" s="112"/>
       <c r="BO44" s="112"/>
     </row>
-    <row r="45" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="103"/>
       <c r="B45" s="104"/>
       <c r="C45" s="128"/>
@@ -10916,7 +10914,7 @@
       <c r="BN45" s="112"/>
       <c r="BO45" s="112"/>
     </row>
-    <row r="46" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="103"/>
       <c r="B46" s="104"/>
       <c r="C46" s="128"/>
@@ -10985,7 +10983,7 @@
       <c r="BN46" s="112"/>
       <c r="BO46" s="112"/>
     </row>
-    <row r="47" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="103"/>
       <c r="B47" s="129"/>
       <c r="C47" s="128"/>
@@ -11054,7 +11052,7 @@
       <c r="BN47" s="112"/>
       <c r="BO47" s="112"/>
     </row>
-    <row r="48" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="103"/>
       <c r="B48" s="129"/>
       <c r="C48" s="128"/>
@@ -11123,7 +11121,7 @@
       <c r="BN48" s="112"/>
       <c r="BO48" s="112"/>
     </row>
-    <row r="49" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="89"/>
       <c r="B49" s="104"/>
       <c r="C49" s="83"/>
@@ -11192,7 +11190,7 @@
       <c r="BN49" s="58"/>
       <c r="BO49" s="58"/>
     </row>
-    <row r="50" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="81"/>
       <c r="B50" s="93"/>
       <c r="C50" s="94"/>
@@ -11264,7 +11262,7 @@
       <c r="BN50" s="98"/>
       <c r="BO50" s="98"/>
     </row>
-    <row r="51" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="81"/>
       <c r="B51" s="93"/>
       <c r="C51" s="94"/>
@@ -11333,7 +11331,7 @@
       <c r="BN51" s="98"/>
       <c r="BO51" s="98"/>
     </row>
-    <row r="52" spans="1:67" s="100" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" s="100" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="114" t="s">
         <v>78</v>
       </c>
@@ -11404,7 +11402,7 @@
       <c r="BN52" s="98"/>
       <c r="BO52" s="98"/>
     </row>
-    <row r="53" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="121">
         <v>2</v>
       </c>
@@ -11477,13 +11475,13 @@
       <c r="BN53" s="58"/>
       <c r="BO53" s="58"/>
     </row>
-    <row r="54" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="81"/>
       <c r="B54" s="93" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D54" s="94"/>
       <c r="E54" s="102"/>
@@ -11550,7 +11548,7 @@
       <c r="BN54" s="98"/>
       <c r="BO54" s="98"/>
     </row>
-    <row r="55" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="103"/>
       <c r="B55" s="104"/>
       <c r="C55" s="128"/>
@@ -11619,7 +11617,7 @@
       <c r="BN55" s="112"/>
       <c r="BO55" s="112"/>
     </row>
-    <row r="56" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="103"/>
       <c r="B56" s="104"/>
       <c r="C56" s="128"/>
@@ -11688,7 +11686,7 @@
       <c r="BN56" s="112"/>
       <c r="BO56" s="112"/>
     </row>
-    <row r="57" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="103"/>
       <c r="B57" s="104"/>
       <c r="C57" s="128"/>
@@ -11757,7 +11755,7 @@
       <c r="BN57" s="112"/>
       <c r="BO57" s="112"/>
     </row>
-    <row r="58" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="103"/>
       <c r="B58" s="104"/>
       <c r="C58" s="128"/>
@@ -11826,7 +11824,7 @@
       <c r="BN58" s="112"/>
       <c r="BO58" s="112"/>
     </row>
-    <row r="59" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="103"/>
       <c r="B59" s="104"/>
       <c r="C59" s="128"/>
@@ -11895,7 +11893,7 @@
       <c r="BN59" s="112"/>
       <c r="BO59" s="112"/>
     </row>
-    <row r="60" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="103"/>
       <c r="B60" s="104"/>
       <c r="C60" s="128"/>
@@ -11964,7 +11962,7 @@
       <c r="BN60" s="112"/>
       <c r="BO60" s="112"/>
     </row>
-    <row r="61" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="103"/>
       <c r="B61" s="104"/>
       <c r="C61" s="128"/>
@@ -12033,7 +12031,7 @@
       <c r="BN61" s="112"/>
       <c r="BO61" s="112"/>
     </row>
-    <row r="62" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="103"/>
       <c r="B62" s="104"/>
       <c r="C62" s="128"/>
@@ -12102,7 +12100,7 @@
       <c r="BN62" s="112"/>
       <c r="BO62" s="112"/>
     </row>
-    <row r="63" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="103"/>
       <c r="B63" s="104"/>
       <c r="C63" s="128"/>
@@ -12171,7 +12169,7 @@
       <c r="BN63" s="112"/>
       <c r="BO63" s="112"/>
     </row>
-    <row r="64" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="103"/>
       <c r="B64" s="104"/>
       <c r="C64" s="128"/>
@@ -12240,7 +12238,7 @@
       <c r="BN64" s="112"/>
       <c r="BO64" s="112"/>
     </row>
-    <row r="65" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="89"/>
       <c r="B65" s="104"/>
       <c r="C65" s="83"/>
@@ -12309,16 +12307,16 @@
       <c r="BN65" s="58"/>
       <c r="BO65" s="58"/>
     </row>
-    <row r="66" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="81"/>
       <c r="B66" s="93" t="s">
         <v>69</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D66" s="94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E66" s="102"/>
       <c r="F66" s="74"/>
@@ -12384,7 +12382,7 @@
       <c r="BN66" s="98"/>
       <c r="BO66" s="98"/>
     </row>
-    <row r="67" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="89"/>
       <c r="B67" s="104"/>
       <c r="C67" s="83"/>
@@ -12453,7 +12451,7 @@
       <c r="BN67" s="58"/>
       <c r="BO67" s="58"/>
     </row>
-    <row r="68" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="89"/>
       <c r="B68" s="104"/>
       <c r="C68" s="83"/>
@@ -12522,7 +12520,7 @@
       <c r="BN68" s="58"/>
       <c r="BO68" s="58"/>
     </row>
-    <row r="69" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="89"/>
       <c r="B69" s="104"/>
       <c r="C69" s="83"/>
@@ -12591,7 +12589,7 @@
       <c r="BN69" s="58"/>
       <c r="BO69" s="58"/>
     </row>
-    <row r="70" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="89"/>
       <c r="B70" s="104"/>
       <c r="C70" s="83"/>
@@ -12660,7 +12658,7 @@
       <c r="BN70" s="58"/>
       <c r="BO70" s="58"/>
     </row>
-    <row r="71" spans="1:67" s="100" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:67" s="100" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="114" t="s">
         <v>78</v>
       </c>
@@ -12731,7 +12729,7 @@
       <c r="BN71" s="98"/>
       <c r="BO71" s="98"/>
     </row>
-    <row r="72" spans="1:67" s="59" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:67" s="59" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="121">
         <v>3</v>
       </c>
@@ -12813,7 +12811,7 @@
       <c r="BN72" s="58"/>
       <c r="BO72" s="58"/>
     </row>
-    <row r="73" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="81">
         <v>3.1</v>
       </c>
@@ -12821,7 +12819,7 @@
         <v>81</v>
       </c>
       <c r="C73" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D73" s="94"/>
       <c r="E73" s="102"/>
@@ -12894,7 +12892,7 @@
       <c r="BN73" s="98"/>
       <c r="BO73" s="98"/>
     </row>
-    <row r="74" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="89" t="s">
         <v>120</v>
       </c>
@@ -12969,7 +12967,7 @@
       <c r="BN74" s="58"/>
       <c r="BO74" s="58"/>
     </row>
-    <row r="75" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="89"/>
       <c r="B75" s="104" t="s">
         <v>125</v>
@@ -13042,7 +13040,7 @@
       <c r="BN75" s="58"/>
       <c r="BO75" s="58"/>
     </row>
-    <row r="76" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="89"/>
       <c r="B76" s="104" t="s">
         <v>119</v>
@@ -13115,7 +13113,7 @@
       <c r="BN76" s="58"/>
       <c r="BO76" s="58"/>
     </row>
-    <row r="77" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="89"/>
       <c r="B77" s="104"/>
       <c r="C77" s="83"/>
@@ -13184,7 +13182,7 @@
       <c r="BN77" s="58"/>
       <c r="BO77" s="58"/>
     </row>
-    <row r="78" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="89" t="s">
         <v>121</v>
       </c>
@@ -13192,10 +13190,10 @@
         <v>122</v>
       </c>
       <c r="C78" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78" s="94" t="s">
         <v>259</v>
-      </c>
-      <c r="D78" s="94" t="s">
-        <v>260</v>
       </c>
       <c r="E78" s="90"/>
       <c r="F78" s="91">
@@ -13269,7 +13267,7 @@
       <c r="BN78" s="58"/>
       <c r="BO78" s="58"/>
     </row>
-    <row r="79" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="89"/>
       <c r="B79" s="104" t="s">
         <v>123</v>
@@ -13342,7 +13340,7 @@
       <c r="BN79" s="58"/>
       <c r="BO79" s="58"/>
     </row>
-    <row r="80" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="89"/>
       <c r="B80" s="104" t="s">
         <v>124</v>
@@ -13415,7 +13413,7 @@
       <c r="BN80" s="58"/>
       <c r="BO80" s="58"/>
     </row>
-    <row r="81" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="81">
         <v>3.2</v>
       </c>
@@ -13494,13 +13492,13 @@
       <c r="BN81" s="98"/>
       <c r="BO81" s="98"/>
     </row>
-    <row r="82" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="81"/>
       <c r="B82" s="93" t="s">
         <v>68</v>
       </c>
       <c r="C82" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D82" s="94" t="s">
         <v>113</v>
@@ -13569,15 +13567,15 @@
       <c r="BN82" s="98"/>
       <c r="BO82" s="98"/>
     </row>
-    <row r="83" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="222" t="s">
+    <row r="83" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="220" t="s">
         <v>59</v>
       </c>
       <c r="B83" s="104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C83" s="83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D83" s="128"/>
       <c r="E83" s="105"/>
@@ -13652,13 +13650,13 @@
       <c r="BN83" s="112"/>
       <c r="BO83" s="112"/>
     </row>
-    <row r="84" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="223"/>
+    <row r="84" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="221"/>
       <c r="B84" s="104" t="s">
         <v>129</v>
       </c>
       <c r="C84" s="128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D84" s="128"/>
       <c r="E84" s="105"/>
@@ -13733,13 +13731,13 @@
       <c r="BN84" s="112"/>
       <c r="BO84" s="112"/>
     </row>
-    <row r="85" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="223"/>
+    <row r="85" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="221"/>
       <c r="B85" s="104" t="s">
         <v>137</v>
       </c>
       <c r="C85" s="128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D85" s="128"/>
       <c r="E85" s="105"/>
@@ -13814,13 +13812,13 @@
       <c r="BN85" s="112"/>
       <c r="BO85" s="112"/>
     </row>
-    <row r="86" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="223"/>
+    <row r="86" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="221"/>
       <c r="B86" s="104" t="s">
         <v>136</v>
       </c>
       <c r="C86" s="128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D86" s="128"/>
       <c r="E86" s="105"/>
@@ -13895,13 +13893,13 @@
       <c r="BN86" s="112"/>
       <c r="BO86" s="112"/>
     </row>
-    <row r="87" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="224"/>
+    <row r="87" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="222"/>
       <c r="B87" s="104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C87" s="128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="128" t="s">
         <v>113</v>
@@ -13972,15 +13970,15 @@
       <c r="BN87" s="112"/>
       <c r="BO87" s="112"/>
     </row>
-    <row r="88" spans="1:67" s="113" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="222" t="s">
+    <row r="88" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="220" t="s">
         <v>63</v>
       </c>
       <c r="B88" s="104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C88" s="128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="128" t="s">
         <v>113</v>
@@ -14057,13 +14055,13 @@
       <c r="BN88" s="112"/>
       <c r="BO88" s="112"/>
     </row>
-    <row r="89" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="223"/>
+    <row r="89" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="221"/>
       <c r="B89" s="104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C89" s="128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="128"/>
       <c r="E89" s="105"/>
@@ -14138,13 +14136,13 @@
       <c r="BN89" s="112"/>
       <c r="BO89" s="112"/>
     </row>
-    <row r="90" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="223"/>
+    <row r="90" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="221"/>
       <c r="B90" s="104" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C90" s="128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="128"/>
       <c r="E90" s="105"/>
@@ -14219,13 +14217,13 @@
       <c r="BN90" s="112"/>
       <c r="BO90" s="112"/>
     </row>
-    <row r="91" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="223"/>
+    <row r="91" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="221"/>
       <c r="B91" s="104" t="s">
         <v>145</v>
       </c>
       <c r="C91" s="128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="128"/>
       <c r="E91" s="105"/>
@@ -14300,13 +14298,13 @@
       <c r="BN91" s="112"/>
       <c r="BO91" s="112"/>
     </row>
-    <row r="92" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="224"/>
+    <row r="92" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="222"/>
       <c r="B92" s="104" t="s">
         <v>32</v>
       </c>
       <c r="C92" s="128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="128" t="s">
         <v>113</v>
@@ -14383,15 +14381,15 @@
       <c r="BN92" s="112"/>
       <c r="BO92" s="112"/>
     </row>
-    <row r="93" spans="1:67" s="113" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="222" t="s">
+    <row r="93" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="220" t="s">
         <v>71</v>
       </c>
       <c r="B93" s="104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C93" s="128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="128" t="s">
         <v>113</v>
@@ -14468,13 +14466,13 @@
       <c r="BN93" s="112"/>
       <c r="BO93" s="112"/>
     </row>
-    <row r="94" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="223"/>
+    <row r="94" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="221"/>
       <c r="B94" s="104" t="s">
         <v>28</v>
       </c>
       <c r="C94" s="128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="128"/>
       <c r="E94" s="105"/>
@@ -14549,13 +14547,13 @@
       <c r="BN94" s="112"/>
       <c r="BO94" s="112"/>
     </row>
-    <row r="95" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="223"/>
+    <row r="95" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="221"/>
       <c r="B95" s="104" t="s">
         <v>31</v>
       </c>
       <c r="C95" s="128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95" s="128"/>
       <c r="E95" s="105"/>
@@ -14630,13 +14628,13 @@
       <c r="BN95" s="112"/>
       <c r="BO95" s="112"/>
     </row>
-    <row r="96" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="223"/>
+    <row r="96" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="221"/>
       <c r="B96" s="104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C96" s="128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D96" s="128"/>
       <c r="E96" s="105"/>
@@ -14711,13 +14709,13 @@
       <c r="BN96" s="112"/>
       <c r="BO96" s="112"/>
     </row>
-    <row r="97" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="223"/>
+    <row r="97" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="221"/>
       <c r="B97" s="104" t="s">
         <v>147</v>
       </c>
       <c r="C97" s="128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D97" s="128"/>
       <c r="E97" s="105"/>
@@ -14792,13 +14790,13 @@
       <c r="BN97" s="112"/>
       <c r="BO97" s="112"/>
     </row>
-    <row r="98" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="224"/>
+    <row r="98" spans="1:67" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="222"/>
       <c r="B98" s="104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C98" s="128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D98" s="128" t="s">
         <v>113</v>
@@ -14875,15 +14873,15 @@
       <c r="BN98" s="112"/>
       <c r="BO98" s="112"/>
     </row>
-    <row r="99" spans="1:67" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="225" t="s">
+    <row r="99" spans="1:67" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="195" t="s">
         <v>83</v>
       </c>
       <c r="B99" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="128" t="s">
         <v>268</v>
-      </c>
-      <c r="C99" s="128" t="s">
-        <v>269</v>
       </c>
       <c r="D99" s="128"/>
       <c r="E99" s="105"/>
@@ -14956,7 +14954,7 @@
       <c r="BN99" s="112"/>
       <c r="BO99" s="112"/>
     </row>
-    <row r="100" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="89"/>
       <c r="B100" s="104"/>
       <c r="C100" s="83"/>
@@ -15025,7 +15023,7 @@
       <c r="BN100" s="58"/>
       <c r="BO100" s="58"/>
     </row>
-    <row r="101" spans="1:67" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:67" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="81"/>
       <c r="B101" s="93" t="s">
         <v>69</v>
@@ -15096,10 +15094,10 @@
       <c r="BN101" s="98"/>
       <c r="BO101" s="98"/>
     </row>
-    <row r="102" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="89"/>
       <c r="B102" s="104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C102" s="83"/>
       <c r="D102" s="83"/>
@@ -15167,7 +15165,7 @@
       <c r="BN102" s="58"/>
       <c r="BO102" s="58"/>
     </row>
-    <row r="103" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="89"/>
       <c r="B103" s="104"/>
       <c r="C103" s="83"/>
@@ -15236,7 +15234,7 @@
       <c r="BN103" s="58"/>
       <c r="BO103" s="58"/>
     </row>
-    <row r="104" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="89"/>
       <c r="B104" s="104"/>
       <c r="C104" s="83"/>
@@ -15305,7 +15303,7 @@
       <c r="BN104" s="58"/>
       <c r="BO104" s="58"/>
     </row>
-    <row r="105" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="89"/>
       <c r="B105" s="104"/>
       <c r="C105" s="83"/>
@@ -15374,7 +15372,7 @@
       <c r="BN105" s="58"/>
       <c r="BO105" s="58"/>
     </row>
-    <row r="106" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="89"/>
       <c r="B106" s="104"/>
       <c r="C106" s="94"/>
@@ -15443,7 +15441,7 @@
       <c r="BN106" s="58"/>
       <c r="BO106" s="58"/>
     </row>
-    <row r="107" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="60" t="s">
         <v>83</v>
       </c>
@@ -15525,7 +15523,7 @@
       <c r="BN107" s="58"/>
       <c r="BO107" s="58"/>
     </row>
-    <row r="108" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="121" t="s">
         <v>85</v>
       </c>
@@ -15598,7 +15596,7 @@
       <c r="BN108" s="58"/>
       <c r="BO108" s="58"/>
     </row>
-    <row r="109" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="89"/>
       <c r="B109" s="93" t="s">
         <v>87</v>
@@ -15672,7 +15670,7 @@
       <c r="BN109" s="58"/>
       <c r="BO109" s="58"/>
     </row>
-    <row r="110" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="89"/>
       <c r="B110" s="93" t="s">
         <v>88</v>
@@ -15743,7 +15741,7 @@
       <c r="BN110" s="58"/>
       <c r="BO110" s="58"/>
     </row>
-    <row r="111" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="89"/>
       <c r="B111" s="93" t="s">
         <v>89</v>
@@ -15814,7 +15812,7 @@
       <c r="BN111" s="58"/>
       <c r="BO111" s="58"/>
     </row>
-    <row r="112" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="89"/>
       <c r="B112" s="93" t="s">
         <v>90</v>
@@ -15885,7 +15883,7 @@
       <c r="BN112" s="58"/>
       <c r="BO112" s="58"/>
     </row>
-    <row r="113" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="89"/>
       <c r="B113" s="93" t="s">
         <v>91</v>
@@ -15956,7 +15954,7 @@
       <c r="BN113" s="58"/>
       <c r="BO113" s="58"/>
     </row>
-    <row r="114" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="89"/>
       <c r="B114" s="93" t="s">
         <v>92</v>
@@ -16030,7 +16028,7 @@
       <c r="BN114" s="58"/>
       <c r="BO114" s="58"/>
     </row>
-    <row r="115" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="89"/>
       <c r="B115" s="93" t="s">
         <v>93</v>
@@ -16101,7 +16099,7 @@
       <c r="BN115" s="58"/>
       <c r="BO115" s="58"/>
     </row>
-    <row r="116" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="89"/>
       <c r="B116" s="104"/>
       <c r="C116" s="83"/>
@@ -16170,7 +16168,7 @@
       <c r="BN116" s="58"/>
       <c r="BO116" s="58"/>
     </row>
-    <row r="117" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="89"/>
       <c r="B117" s="104"/>
       <c r="C117" s="83"/>
@@ -16239,7 +16237,7 @@
       <c r="BN117" s="58"/>
       <c r="BO117" s="58"/>
     </row>
-    <row r="118" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="89"/>
       <c r="B118" s="104"/>
       <c r="C118" s="83"/>
@@ -16308,7 +16306,7 @@
       <c r="BN118" s="58"/>
       <c r="BO118" s="58"/>
     </row>
-    <row r="119" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="89"/>
       <c r="B119" s="93"/>
       <c r="C119" s="94"/>
@@ -16377,7 +16375,7 @@
       <c r="BN119" s="58"/>
       <c r="BO119" s="58"/>
     </row>
-    <row r="120" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="114"/>
       <c r="B120" s="115"/>
       <c r="C120" s="116"/>
@@ -16446,7 +16444,7 @@
       <c r="BN120" s="58"/>
       <c r="BO120" s="58"/>
     </row>
-    <row r="121" spans="1:67" s="59" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:67" s="59" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="121" t="s">
         <v>94</v>
       </c>
@@ -16519,7 +16517,7 @@
       <c r="BN121" s="58"/>
       <c r="BO121" s="58"/>
     </row>
-    <row r="122" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="89"/>
       <c r="B122" s="93"/>
       <c r="C122" s="83"/>
@@ -16591,7 +16589,7 @@
       <c r="BN122" s="58"/>
       <c r="BO122" s="58"/>
     </row>
-    <row r="123" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="89"/>
       <c r="B123" s="93"/>
       <c r="C123" s="83"/>
@@ -16660,7 +16658,7 @@
       <c r="BN123" s="58"/>
       <c r="BO123" s="58"/>
     </row>
-    <row r="124" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="114"/>
       <c r="B124" s="115"/>
       <c r="C124" s="116"/>
@@ -16729,7 +16727,7 @@
       <c r="BN124" s="58"/>
       <c r="BO124" s="58"/>
     </row>
-    <row r="125" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="60" t="s">
         <v>96</v>
       </c>
@@ -16802,7 +16800,7 @@
       <c r="BN125" s="58"/>
       <c r="BO125" s="58"/>
     </row>
-    <row r="126" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="136"/>
       <c r="B126" s="93" t="s">
         <v>98</v>
@@ -16873,7 +16871,7 @@
       <c r="BN126" s="58"/>
       <c r="BO126" s="58"/>
     </row>
-    <row r="127" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="136"/>
       <c r="B127" s="104"/>
       <c r="C127" s="83"/>
@@ -16942,7 +16940,7 @@
       <c r="BN127" s="58"/>
       <c r="BO127" s="58"/>
     </row>
-    <row r="128" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="136"/>
       <c r="B128" s="104"/>
       <c r="C128" s="83"/>
@@ -17011,7 +17009,7 @@
       <c r="BN128" s="58"/>
       <c r="BO128" s="58"/>
     </row>
-    <row r="129" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="136"/>
       <c r="B129" s="104"/>
       <c r="C129" s="83"/>
@@ -17080,7 +17078,7 @@
       <c r="BN129" s="58"/>
       <c r="BO129" s="58"/>
     </row>
-    <row r="130" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="136"/>
       <c r="B130" s="104"/>
       <c r="C130" s="83"/>
@@ -17149,7 +17147,7 @@
       <c r="BN130" s="58"/>
       <c r="BO130" s="58"/>
     </row>
-    <row r="131" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="136"/>
       <c r="B131" s="93" t="s">
         <v>99</v>
@@ -17220,7 +17218,7 @@
       <c r="BN131" s="58"/>
       <c r="BO131" s="58"/>
     </row>
-    <row r="132" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="136"/>
       <c r="B132" s="93" t="s">
         <v>100</v>
@@ -17291,7 +17289,7 @@
       <c r="BN132" s="58"/>
       <c r="BO132" s="58"/>
     </row>
-    <row r="133" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="136"/>
       <c r="B133" s="93" t="s">
         <v>101</v>
@@ -17362,7 +17360,7 @@
       <c r="BN133" s="58"/>
       <c r="BO133" s="58"/>
     </row>
-    <row r="134" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="136"/>
       <c r="B134" s="93" t="s">
         <v>102</v>
@@ -17433,7 +17431,7 @@
       <c r="BN134" s="58"/>
       <c r="BO134" s="58"/>
     </row>
-    <row r="135" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="136"/>
       <c r="B135" s="93" t="s">
         <v>103</v>
@@ -17504,7 +17502,7 @@
       <c r="BN135" s="58"/>
       <c r="BO135" s="58"/>
     </row>
-    <row r="136" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="60" t="s">
         <v>104</v>
       </c>
@@ -17577,7 +17575,7 @@
       <c r="BN136" s="58"/>
       <c r="BO136" s="58"/>
     </row>
-    <row r="137" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="136"/>
       <c r="B137" s="93" t="s">
         <v>106</v>
@@ -17648,7 +17646,7 @@
       <c r="BN137" s="58"/>
       <c r="BO137" s="58"/>
     </row>
-    <row r="138" spans="1:67" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:67" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="136"/>
       <c r="B138" s="93" t="s">
         <v>107</v>
@@ -17719,7 +17717,7 @@
       <c r="BN138" s="58"/>
       <c r="BO138" s="58"/>
     </row>
-    <row r="139" spans="1:67" s="100" customFormat="1" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:67" s="100" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="140" t="s">
         <v>78</v>
       </c>
@@ -17806,10 +17804,10 @@
       <c r="BN139" s="151"/>
       <c r="BO139" s="151"/>
     </row>
-    <row r="141" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A141" s="152"/>
     </row>
-    <row r="142" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A142" s="153"/>
     </row>
   </sheetData>
@@ -18211,7 +18209,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Daily,Weekly,Monthly,Quarterly"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18230,13 +18228,13 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>175260</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>29</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
